--- a/results/Chicago-Sketch/Scenarios/summary.xlsx
+++ b/results/Chicago-Sketch/Scenarios/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcorredor/Documents/PulseAlgorithm/SaRP/results/Chicago-Sketch/Scenarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEB0B27-C904-114A-B9A2-A20EEE8C5255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3356BBB7-42B2-5245-9720-BA374665F363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,6 +30,17 @@
     <sheet name="objFun0.8" sheetId="14" r:id="rId15"/>
     <sheet name="reliability0.8" sheetId="15" r:id="rId16"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">objFun!$S$3:$S$4</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">objFun!$T$3:$X$3</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">objFun!$T$4:$X$4</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">objFun!$S$3:$S$4</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">objFun!$T$3:$X$3</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">objFun!$T$4:$X$4</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">objFun!$S$3:$S$4</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">objFun!$T$3:$X$3</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">objFun!$T$4:$X$4</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -45,7 +56,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -67,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="6">
   <si>
     <t>Scenario</t>
   </si>
@@ -186,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -197,7 +208,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -211,12 +221,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -244,6 +248,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -259,6 +266,924 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>objFun!$S$3:$S$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Instance 17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>objFun!$T$3:$X$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>objFun!$T$4:$X$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13275</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13455</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7DD4-2D4E-AEAF-3CC0AC45036D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="969079295"/>
+        <c:axId val="968926527"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="969079295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="968926527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="968926527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="969079295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25EC3685-4D18-0F40-A469-90FADA0AF963}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5443,26 +6368,26 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="31" t="s">
+      <c r="B1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32">
+      <c r="G1" s="29">
         <v>0.8</v>
       </c>
       <c r="I1" s="1"/>
-      <c r="J1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+      <c r="J1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -5472,38 +6397,38 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="17">
         <f>B2+1</f>
         <v>2</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <f>C2+1</f>
         <v>3</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="17">
         <f>D2+1</f>
         <v>4</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="17">
         <f>E2+1</f>
         <v>5</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="20" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="19">
         <v>2</v>
       </c>
-      <c r="L2" s="22">
+      <c r="L2" s="19">
         <v>3</v>
       </c>
-      <c r="M2" s="22">
+      <c r="M2" s="19">
         <v>4</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="19">
         <v>5</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -5574,23 +6499,23 @@
         <f t="shared" ref="A4:A42" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="21" cm="1">
+      <c r="B4" s="18" cm="1">
         <f t="array" aca="1" ref="B4" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.94225939999999997</v>
       </c>
-      <c r="C4" s="21" cm="1">
+      <c r="C4" s="18" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.79785910000000004</v>
       </c>
-      <c r="D4" s="21" cm="1">
+      <c r="D4" s="18" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.83097430000000005</v>
       </c>
-      <c r="E4" s="21" cm="1">
+      <c r="E4" s="18" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.76538059999999997</v>
       </c>
-      <c r="F4" s="21" cm="1">
+      <c r="F4" s="18" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.82187279999999996</v>
       </c>
@@ -5627,27 +6552,27 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
+      <c r="A5" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="21" cm="1">
+      <c r="B5" s="18" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>2.164774</v>
       </c>
-      <c r="C5" s="21" cm="1">
+      <c r="C5" s="18" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.9687197000000001</v>
       </c>
-      <c r="D5" s="21" cm="1">
+      <c r="D5" s="18" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.6660885999999999</v>
       </c>
-      <c r="E5" s="21" cm="1">
+      <c r="E5" s="18" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>24.370546399999998</v>
       </c>
-      <c r="F5" s="21" cm="1">
+      <c r="F5" s="18" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>51.352301099999998</v>
       </c>
@@ -5684,27 +6609,27 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="21">
+      <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="21" cm="1">
+      <c r="B6" s="18" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.81129890000000005</v>
       </c>
-      <c r="C6" s="21" cm="1">
+      <c r="C6" s="18" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.85441719999999999</v>
       </c>
-      <c r="D6" s="21" cm="1">
+      <c r="D6" s="18" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.85457640000000001</v>
       </c>
-      <c r="E6" s="21" cm="1">
+      <c r="E6" s="18" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>81.243449200000001</v>
       </c>
-      <c r="F6" s="21" cm="1">
+      <c r="F6" s="18" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>65.719607400000001</v>
       </c>
@@ -5741,27 +6666,27 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
+      <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="21" cm="1">
+      <c r="B7" s="18" cm="1">
         <f t="array" aca="1" ref="B7" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.9648601999999999</v>
       </c>
-      <c r="C7" s="21" cm="1">
+      <c r="C7" s="18" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>7.5909186000000002</v>
       </c>
-      <c r="D7" s="21" cm="1">
+      <c r="D7" s="18" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>4.4246638000000003</v>
       </c>
-      <c r="E7" s="21" cm="1">
+      <c r="E7" s="18" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>11.274554800000001</v>
       </c>
-      <c r="F7" s="21" cm="1">
+      <c r="F7" s="18" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>6.9772799000000001</v>
       </c>
@@ -5798,27 +6723,27 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="21">
+      <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="21" cm="1">
+      <c r="B8" s="18" cm="1">
         <f t="array" aca="1" ref="B8" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.7162522</v>
       </c>
-      <c r="C8" s="21" cm="1">
+      <c r="C8" s="18" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>12.420360799999999</v>
       </c>
-      <c r="D8" s="21" cm="1">
+      <c r="D8" s="18" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>93.414392500000005</v>
       </c>
-      <c r="E8" s="21" cm="1">
+      <c r="E8" s="18" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>64.0395994</v>
       </c>
-      <c r="F8" s="21" cm="1">
+      <c r="F8" s="18" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>47.084558999999999</v>
       </c>
@@ -5855,27 +6780,27 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
+      <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="21" cm="1">
+      <c r="B9" s="18" cm="1">
         <f t="array" aca="1" ref="B9" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.8668804999999999</v>
       </c>
-      <c r="C9" s="21" cm="1">
+      <c r="C9" s="18" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>3.5266087000000002</v>
       </c>
-      <c r="D9" s="21" cm="1">
+      <c r="D9" s="18" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>2.8243857999999999</v>
       </c>
-      <c r="E9" s="21" cm="1">
+      <c r="E9" s="18" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>3.209689</v>
       </c>
-      <c r="F9" s="21" cm="1">
+      <c r="F9" s="18" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>2.4969131999999998</v>
       </c>
@@ -5912,27 +6837,27 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="21">
+      <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="21" cm="1">
+      <c r="B10" s="18" cm="1">
         <f t="array" aca="1" ref="B10" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.4150278</v>
       </c>
-      <c r="C10" s="21" cm="1">
+      <c r="C10" s="18" cm="1">
         <f t="array" aca="1" ref="C10" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.42213139999999999</v>
       </c>
-      <c r="D10" s="21" cm="1">
+      <c r="D10" s="18" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.43398160000000002</v>
       </c>
-      <c r="E10" s="21" cm="1">
+      <c r="E10" s="18" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.40557260000000001</v>
       </c>
-      <c r="F10" s="21" cm="1">
+      <c r="F10" s="18" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.41728199999999999</v>
       </c>
@@ -5969,27 +6894,27 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="21">
+      <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="21" cm="1">
+      <c r="B11" s="18" cm="1">
         <f t="array" aca="1" ref="B11" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.7500696</v>
       </c>
-      <c r="C11" s="21" cm="1">
+      <c r="C11" s="18" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.69341260000000005</v>
       </c>
-      <c r="D11" s="21" cm="1">
+      <c r="D11" s="18" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.67641269999999998</v>
       </c>
-      <c r="E11" s="21" cm="1">
+      <c r="E11" s="18" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.1843965000000001</v>
       </c>
-      <c r="F11" s="21" cm="1">
+      <c r="F11" s="18" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.1074778999999999</v>
       </c>
@@ -6026,31 +6951,31 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="21">
+      <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="21" cm="1">
+      <c r="B12" s="18" cm="1">
         <f t="array" aca="1" ref="B12" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.51418770000000003</v>
       </c>
-      <c r="C12" s="21" cm="1">
+      <c r="C12" s="18" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.2629459999999999</v>
       </c>
-      <c r="D12" s="21" cm="1">
+      <c r="D12" s="18" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.2687952</v>
       </c>
-      <c r="E12" s="21" cm="1">
+      <c r="E12" s="18" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.6858580999999999</v>
       </c>
-      <c r="F12" s="21" cm="1">
+      <c r="F12" s="18" cm="1">
         <f t="array" aca="1" ref="F12" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.2933573</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="21">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -6083,31 +7008,31 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="21">
+      <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="21" cm="1">
+      <c r="B13" s="18" cm="1">
         <f t="array" aca="1" ref="B13" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.18443180000000001</v>
       </c>
-      <c r="C13" s="21" cm="1">
+      <c r="C13" s="18" cm="1">
         <f t="array" aca="1" ref="C13" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.1102139</v>
       </c>
-      <c r="D13" s="21" cm="1">
+      <c r="D13" s="18" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.103392</v>
       </c>
-      <c r="E13" s="21" cm="1">
+      <c r="E13" s="18" cm="1">
         <f t="array" aca="1" ref="E13" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.10462050000000001</v>
       </c>
-      <c r="F13" s="21" cm="1">
+      <c r="F13" s="18" cm="1">
         <f t="array" aca="1" ref="F13" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>7.6586199999999993E-2</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="20" t="s">
         <v>3</v>
       </c>
       <c r="J13" s="7">
@@ -6136,755 +7061,755 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="21">
+      <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="21" cm="1">
+      <c r="B14" s="18" cm="1">
         <f t="array" aca="1" ref="B14" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.3663635999999999</v>
       </c>
-      <c r="C14" s="21" cm="1">
+      <c r="C14" s="18" cm="1">
         <f t="array" aca="1" ref="C14" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.0356733</v>
       </c>
-      <c r="D14" s="21" cm="1">
+      <c r="D14" s="18" cm="1">
         <f t="array" aca="1" ref="D14" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.2057374000000001</v>
       </c>
-      <c r="E14" s="21" cm="1">
+      <c r="E14" s="18" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>4.0093693000000004</v>
       </c>
-      <c r="F14" s="21" cm="1">
+      <c r="F14" s="18" cm="1">
         <f t="array" aca="1" ref="F14" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>4.4950476000000004</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="21">
+      <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="21" cm="1">
+      <c r="B15" s="18" cm="1">
         <f t="array" aca="1" ref="B15" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.1466936000000001</v>
       </c>
-      <c r="C15" s="21" cm="1">
+      <c r="C15" s="18" cm="1">
         <f t="array" aca="1" ref="C15" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.0619223</v>
       </c>
-      <c r="D15" s="21" cm="1">
+      <c r="D15" s="18" cm="1">
         <f t="array" aca="1" ref="D15" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.1161018</v>
       </c>
-      <c r="E15" s="21" cm="1">
+      <c r="E15" s="18" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.2050240999999999</v>
       </c>
-      <c r="F15" s="21" cm="1">
+      <c r="F15" s="18" cm="1">
         <f t="array" aca="1" ref="F15" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>2.7437005999999999</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="21">
+      <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="21" cm="1">
+      <c r="B16" s="18" cm="1">
         <f t="array" aca="1" ref="B16" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>3.5598589999999999</v>
       </c>
-      <c r="C16" s="21" cm="1">
+      <c r="C16" s="18" cm="1">
         <f t="array" aca="1" ref="C16" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>3.5828372000000002</v>
       </c>
-      <c r="D16" s="21" cm="1">
+      <c r="D16" s="18" cm="1">
         <f t="array" aca="1" ref="D16" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>28.7034938</v>
       </c>
-      <c r="E16" s="21" cm="1">
+      <c r="E16" s="18" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>382.00983250000002</v>
       </c>
-      <c r="F16" s="21" cm="1">
+      <c r="F16" s="18" cm="1">
         <f t="array" aca="1" ref="F16" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>323.12388199999998</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
+      <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="21" cm="1">
+      <c r="B17" s="18" cm="1">
         <f t="array" aca="1" ref="B17" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.7918232000000001</v>
       </c>
-      <c r="C17" s="21" cm="1">
+      <c r="C17" s="18" cm="1">
         <f t="array" aca="1" ref="C17" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.760450399</v>
       </c>
-      <c r="D17" s="21" cm="1">
+      <c r="D17" s="18" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.6738759990000001</v>
       </c>
-      <c r="E17" s="21" cm="1">
+      <c r="E17" s="18" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.4285191989999999</v>
       </c>
-      <c r="F17" s="21" cm="1">
+      <c r="F17" s="18" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.95040740000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="21">
+      <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="21" cm="1">
+      <c r="B18" s="18" cm="1">
         <f t="array" aca="1" ref="B18" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>5.1104789999999998</v>
       </c>
-      <c r="C18" s="21" cm="1">
+      <c r="C18" s="18" cm="1">
         <f t="array" aca="1" ref="C18" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>3.5246244999999998</v>
       </c>
-      <c r="D18" s="21" cm="1">
+      <c r="D18" s="18" cm="1">
         <f t="array" aca="1" ref="D18" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>21.2811056</v>
       </c>
-      <c r="E18" s="21" cm="1">
+      <c r="E18" s="18" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>15.3715016</v>
       </c>
-      <c r="F18" s="21" cm="1">
+      <c r="F18" s="18" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>11.818563499</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="21">
+      <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="21" cm="1">
+      <c r="B19" s="18" cm="1">
         <f t="array" aca="1" ref="B19" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.94821540000000004</v>
       </c>
-      <c r="C19" s="21" cm="1">
+      <c r="C19" s="18" cm="1">
         <f t="array" aca="1" ref="C19" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.90644430099999995</v>
       </c>
-      <c r="D19" s="21" cm="1">
+      <c r="D19" s="18" cm="1">
         <f t="array" aca="1" ref="D19" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.0029254000000001</v>
       </c>
-      <c r="E19" s="21" cm="1">
+      <c r="E19" s="18" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.82690549899999999</v>
       </c>
-      <c r="F19" s="21" cm="1">
+      <c r="F19" s="18" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.712315001</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="21">
+      <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="21" cm="1">
+      <c r="B20" s="18" cm="1">
         <f t="array" aca="1" ref="B20" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.497119399</v>
       </c>
-      <c r="C20" s="21" cm="1">
+      <c r="C20" s="18" cm="1">
         <f t="array" aca="1" ref="C20" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>5.0378917999999997</v>
       </c>
-      <c r="D20" s="21" cm="1">
+      <c r="D20" s="18" cm="1">
         <f t="array" aca="1" ref="D20" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>4.4874659000000001</v>
       </c>
-      <c r="E20" s="21" cm="1">
+      <c r="E20" s="18" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>3.5460683</v>
       </c>
-      <c r="F20" s="21" cm="1">
+      <c r="F20" s="18" cm="1">
         <f t="array" aca="1" ref="F20" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>3.5108371009999999</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="21">
+      <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="21" cm="1">
+      <c r="B21" s="18" cm="1">
         <f t="array" aca="1" ref="B21" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.53920180100000004</v>
       </c>
-      <c r="C21" s="21" cm="1">
+      <c r="C21" s="18" cm="1">
         <f t="array" aca="1" ref="C21" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.38057269999999999</v>
       </c>
-      <c r="D21" s="21" cm="1">
+      <c r="D21" s="18" cm="1">
         <f t="array" aca="1" ref="D21" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.39613029900000002</v>
       </c>
-      <c r="E21" s="21" cm="1">
+      <c r="E21" s="18" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.37079010099999998</v>
       </c>
-      <c r="F21" s="21" cm="1">
+      <c r="F21" s="18" cm="1">
         <f t="array" aca="1" ref="F21" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.37346509999999999</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="21">
+      <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="21" cm="1">
+      <c r="B22" s="18" cm="1">
         <f t="array" aca="1" ref="B22" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.185515501</v>
       </c>
-      <c r="C22" s="21" cm="1">
+      <c r="C22" s="18" cm="1">
         <f t="array" aca="1" ref="C22" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.73056450100000003</v>
       </c>
-      <c r="D22" s="21" cm="1">
+      <c r="D22" s="18" cm="1">
         <f t="array" aca="1" ref="D22" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.5517901999999999</v>
       </c>
-      <c r="E22" s="21" cm="1">
+      <c r="E22" s="18" cm="1">
         <f t="array" aca="1" ref="E22" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.0235270000000001</v>
       </c>
-      <c r="F22" s="21" cm="1">
+      <c r="F22" s="18" cm="1">
         <f t="array" aca="1" ref="F22" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.94703680000000001</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="21">
+      <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="21" cm="1">
+      <c r="B23" s="18" cm="1">
         <f t="array" aca="1" ref="B23" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.7229366989999999</v>
       </c>
-      <c r="C23" s="21" cm="1">
+      <c r="C23" s="18" cm="1">
         <f t="array" aca="1" ref="C23" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.5541381000000001</v>
       </c>
-      <c r="D23" s="21" cm="1">
+      <c r="D23" s="18" cm="1">
         <f t="array" aca="1" ref="D23" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.3551493990000001</v>
       </c>
-      <c r="E23" s="21" cm="1">
+      <c r="E23" s="18" cm="1">
         <f t="array" aca="1" ref="E23" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>2.4432334010000001</v>
       </c>
-      <c r="F23" s="21" cm="1">
+      <c r="F23" s="18" cm="1">
         <f t="array" aca="1" ref="F23" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>2.2560961000000002</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="21">
+      <c r="A24" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="21" cm="1">
+      <c r="B24" s="18" cm="1">
         <f t="array" aca="1" ref="B24" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>6.7016571999999996</v>
       </c>
-      <c r="C24" s="21" cm="1">
+      <c r="C24" s="18" cm="1">
         <f t="array" aca="1" ref="C24" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>4.7172309989999999</v>
       </c>
-      <c r="D24" s="21" cm="1">
+      <c r="D24" s="18" cm="1">
         <f t="array" aca="1" ref="D24" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>4.2702897999999996</v>
       </c>
-      <c r="E24" s="21" cm="1">
+      <c r="E24" s="18" cm="1">
         <f t="array" aca="1" ref="E24" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>5.5620729999999998</v>
       </c>
-      <c r="F24" s="21" cm="1">
+      <c r="F24" s="18" cm="1">
         <f t="array" aca="1" ref="F24" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>26.0997925</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="21">
+      <c r="A25" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="21" cm="1">
+      <c r="B25" s="18" cm="1">
         <f t="array" aca="1" ref="B25" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>3.5038744999999998</v>
       </c>
-      <c r="C25" s="21" cm="1">
+      <c r="C25" s="18" cm="1">
         <f t="array" aca="1" ref="C25" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>2.7023793</v>
       </c>
-      <c r="D25" s="21" cm="1">
+      <c r="D25" s="18" cm="1">
         <f t="array" aca="1" ref="D25" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>3.4851420000000002</v>
       </c>
-      <c r="E25" s="21" cm="1">
+      <c r="E25" s="18" cm="1">
         <f t="array" aca="1" ref="E25" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>4.9828079000000001</v>
       </c>
-      <c r="F25" s="21" cm="1">
+      <c r="F25" s="18" cm="1">
         <f t="array" aca="1" ref="F25" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>7.7484415000000002</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="21">
+      <c r="A26" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="21" cm="1">
+      <c r="B26" s="18" cm="1">
         <f t="array" aca="1" ref="B26" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.8571359000000001</v>
       </c>
-      <c r="C26" s="21" cm="1">
+      <c r="C26" s="18" cm="1">
         <f t="array" aca="1" ref="C26" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>2.2670477999999998</v>
       </c>
-      <c r="D26" s="21" cm="1">
+      <c r="D26" s="18" cm="1">
         <f t="array" aca="1" ref="D26" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>3.4979607000000001</v>
       </c>
-      <c r="E26" s="21" cm="1">
+      <c r="E26" s="18" cm="1">
         <f t="array" aca="1" ref="E26" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>33.445442200000002</v>
       </c>
-      <c r="F26" s="21" cm="1">
+      <c r="F26" s="18" cm="1">
         <f t="array" aca="1" ref="F26" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>26.061944498999999</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="21">
+      <c r="A27" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="21" cm="1">
+      <c r="B27" s="18" cm="1">
         <f t="array" aca="1" ref="B27" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.3485558010000001</v>
       </c>
-      <c r="C27" s="21" cm="1">
+      <c r="C27" s="18" cm="1">
         <f t="array" aca="1" ref="C27" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.2116583000000001</v>
       </c>
-      <c r="D27" s="21" cm="1">
+      <c r="D27" s="18" cm="1">
         <f t="array" aca="1" ref="D27" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.2247685989999999</v>
       </c>
-      <c r="E27" s="21" cm="1">
+      <c r="E27" s="18" cm="1">
         <f t="array" aca="1" ref="E27" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.1939751999999999</v>
       </c>
-      <c r="F27" s="21" cm="1">
+      <c r="F27" s="18" cm="1">
         <f t="array" aca="1" ref="F27" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.1811723999999999</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="21">
+      <c r="A28" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="21" cm="1">
+      <c r="B28" s="18" cm="1">
         <f t="array" aca="1" ref="B28" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>10.402684499999999</v>
       </c>
-      <c r="C28" s="21" cm="1">
+      <c r="C28" s="18" cm="1">
         <f t="array" aca="1" ref="C28" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>9.7765186990000004</v>
       </c>
-      <c r="D28" s="21" cm="1">
+      <c r="D28" s="18" cm="1">
         <f t="array" aca="1" ref="D28" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>8.6897561999999997</v>
       </c>
-      <c r="E28" s="21" cm="1">
+      <c r="E28" s="18" cm="1">
         <f t="array" aca="1" ref="E28" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>6.5353965990000003</v>
       </c>
-      <c r="F28" s="21" cm="1">
+      <c r="F28" s="18" cm="1">
         <f t="array" aca="1" ref="F28" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>5.0320112000000004</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="21">
+      <c r="A29" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="21" cm="1">
+      <c r="B29" s="18" cm="1">
         <f t="array" aca="1" ref="B29" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>4.1228461999999997</v>
       </c>
-      <c r="C29" s="21" cm="1">
+      <c r="C29" s="18" cm="1">
         <f t="array" aca="1" ref="C29" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>3.8172757000000002</v>
       </c>
-      <c r="D29" s="21" cm="1">
+      <c r="D29" s="18" cm="1">
         <f t="array" aca="1" ref="D29" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>4.7212797000000002</v>
       </c>
-      <c r="E29" s="21" cm="1">
+      <c r="E29" s="18" cm="1">
         <f t="array" aca="1" ref="E29" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>15.2304964</v>
       </c>
-      <c r="F29" s="21" cm="1">
+      <c r="F29" s="18" cm="1">
         <f t="array" aca="1" ref="F29" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>50.263057500000002</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="21">
+      <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="21" cm="1">
+      <c r="B30" s="18" cm="1">
         <f t="array" aca="1" ref="B30" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.71202849999999995</v>
       </c>
-      <c r="C30" s="21" cm="1">
+      <c r="C30" s="18" cm="1">
         <f t="array" aca="1" ref="C30" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.64130450000000006</v>
       </c>
-      <c r="D30" s="21" cm="1">
+      <c r="D30" s="18" cm="1">
         <f t="array" aca="1" ref="D30" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.658206399</v>
       </c>
-      <c r="E30" s="21" cm="1">
+      <c r="E30" s="18" cm="1">
         <f t="array" aca="1" ref="E30" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.69618210000000003</v>
       </c>
-      <c r="F30" s="21" cm="1">
+      <c r="F30" s="18" cm="1">
         <f t="array" aca="1" ref="F30" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.65884739999999997</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="21">
+      <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="21" cm="1">
+      <c r="B31" s="18" cm="1">
         <f t="array" aca="1" ref="B31" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.1927329</v>
       </c>
-      <c r="C31" s="21" cm="1">
+      <c r="C31" s="18" cm="1">
         <f t="array" aca="1" ref="C31" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.2106705</v>
       </c>
-      <c r="D31" s="21" cm="1">
+      <c r="D31" s="18" cm="1">
         <f t="array" aca="1" ref="D31" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>2.0765212000000002</v>
       </c>
-      <c r="E31" s="21" cm="1">
+      <c r="E31" s="18" cm="1">
         <f t="array" aca="1" ref="E31" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>8.1260370010000003</v>
       </c>
-      <c r="F31" s="21" cm="1">
+      <c r="F31" s="18" cm="1">
         <f t="array" aca="1" ref="F31" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>5.3360380000000003</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="21">
+      <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="21" cm="1">
+      <c r="B32" s="18" cm="1">
         <f t="array" aca="1" ref="B32" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>2.3930044000000001</v>
       </c>
-      <c r="C32" s="21" cm="1">
+      <c r="C32" s="18" cm="1">
         <f t="array" aca="1" ref="C32" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.8184524</v>
       </c>
-      <c r="D32" s="21" cm="1">
+      <c r="D32" s="18" cm="1">
         <f t="array" aca="1" ref="D32" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.7524925010000001</v>
       </c>
-      <c r="E32" s="21" cm="1">
+      <c r="E32" s="18" cm="1">
         <f t="array" aca="1" ref="E32" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>6.9079525009999996</v>
       </c>
-      <c r="F32" s="21" cm="1">
+      <c r="F32" s="18" cm="1">
         <f t="array" aca="1" ref="F32" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>5.6169922010000004</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="21">
+      <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="21" cm="1">
+      <c r="B33" s="18" cm="1">
         <f t="array" aca="1" ref="B33" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.3422786</v>
       </c>
-      <c r="C33" s="21" cm="1">
+      <c r="C33" s="18" cm="1">
         <f t="array" aca="1" ref="C33" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.3647815000000001</v>
       </c>
-      <c r="D33" s="21" cm="1">
+      <c r="D33" s="18" cm="1">
         <f t="array" aca="1" ref="D33" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.6747240000000001</v>
       </c>
-      <c r="E33" s="21" cm="1">
+      <c r="E33" s="18" cm="1">
         <f t="array" aca="1" ref="E33" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>26.919217799999998</v>
       </c>
-      <c r="F33" s="21" cm="1">
+      <c r="F33" s="18" cm="1">
         <f t="array" aca="1" ref="F33" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>16.671958100000001</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="21">
+      <c r="A34" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="21" cm="1">
+      <c r="B34" s="18" cm="1">
         <f t="array" aca="1" ref="B34" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.327270299</v>
       </c>
-      <c r="C34" s="21" cm="1">
+      <c r="C34" s="18" cm="1">
         <f t="array" aca="1" ref="C34" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.3401818999999999</v>
       </c>
-      <c r="D34" s="21" cm="1">
+      <c r="D34" s="18" cm="1">
         <f t="array" aca="1" ref="D34" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.2973562999999999</v>
       </c>
-      <c r="E34" s="21" cm="1">
+      <c r="E34" s="18" cm="1">
         <f t="array" aca="1" ref="E34" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.1608072</v>
       </c>
-      <c r="F34" s="21" cm="1">
+      <c r="F34" s="18" cm="1">
         <f t="array" aca="1" ref="F34" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.0248345000000001</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="21">
+      <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="21" cm="1">
+      <c r="B35" s="18" cm="1">
         <f t="array" aca="1" ref="B35" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.4529993990000001</v>
       </c>
-      <c r="C35" s="21" cm="1">
+      <c r="C35" s="18" cm="1">
         <f t="array" aca="1" ref="C35" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.9152072</v>
       </c>
-      <c r="D35" s="21" cm="1">
+      <c r="D35" s="18" cm="1">
         <f t="array" aca="1" ref="D35" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.743073699</v>
       </c>
-      <c r="E35" s="21" cm="1">
+      <c r="E35" s="18" cm="1">
         <f t="array" aca="1" ref="E35" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.0536681000000001</v>
       </c>
-      <c r="F35" s="21" cm="1">
+      <c r="F35" s="18" cm="1">
         <f t="array" aca="1" ref="F35" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>6.7701966010000003</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="21">
+      <c r="A36" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="21" cm="1">
+      <c r="B36" s="18" cm="1">
         <f t="array" aca="1" ref="B36" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>2.7202438</v>
       </c>
-      <c r="C36" s="21" cm="1">
+      <c r="C36" s="18" cm="1">
         <f t="array" aca="1" ref="C36" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>5.0479291000000002</v>
       </c>
-      <c r="D36" s="21" cm="1">
+      <c r="D36" s="18" cm="1">
         <f t="array" aca="1" ref="D36" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>35.351601600000002</v>
       </c>
-      <c r="E36" s="21" cm="1">
+      <c r="E36" s="18" cm="1">
         <f t="array" aca="1" ref="E36" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>230.74729769999999</v>
       </c>
-      <c r="F36" s="21" cm="1">
+      <c r="F36" s="18" cm="1">
         <f t="array" aca="1" ref="F36" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>158.66373379999999</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="21">
+      <c r="A37" s="18">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="21" cm="1">
+      <c r="B37" s="18" cm="1">
         <f t="array" aca="1" ref="B37" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>2.0596858</v>
       </c>
-      <c r="C37" s="21" cm="1">
+      <c r="C37" s="18" cm="1">
         <f t="array" aca="1" ref="C37" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.7647319990000001</v>
       </c>
-      <c r="D37" s="21" cm="1">
+      <c r="D37" s="18" cm="1">
         <f t="array" aca="1" ref="D37" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.5509953999999999</v>
       </c>
-      <c r="E37" s="21" cm="1">
+      <c r="E37" s="18" cm="1">
         <f t="array" aca="1" ref="E37" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.138286699</v>
       </c>
-      <c r="F37" s="21" cm="1">
+      <c r="F37" s="18" cm="1">
         <f t="array" aca="1" ref="F37" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1.0204086999999999</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="21">
+      <c r="A38" s="18">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="21" cm="1">
+      <c r="B38" s="18" cm="1">
         <f t="array" aca="1" ref="B38" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>2.3352054</v>
       </c>
-      <c r="C38" s="21" cm="1">
+      <c r="C38" s="18" cm="1">
         <f t="array" aca="1" ref="C38" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.92657579999999995</v>
       </c>
-      <c r="D38" s="21" cm="1">
+      <c r="D38" s="18" cm="1">
         <f t="array" aca="1" ref="D38" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.56570050000000005</v>
       </c>
-      <c r="E38" s="21" cm="1">
+      <c r="E38" s="18" cm="1">
         <f t="array" aca="1" ref="E38" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.4654218</v>
       </c>
-      <c r="F38" s="21" cm="1">
+      <c r="F38" s="18" cm="1">
         <f t="array" aca="1" ref="F38" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.33211020000000002</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="21">
+      <c r="A39" s="18">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="21" cm="1">
+      <c r="B39" s="18" cm="1">
         <f t="array" aca="1" ref="B39" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>4.0581886989999996</v>
       </c>
-      <c r="C39" s="21" cm="1">
+      <c r="C39" s="18" cm="1">
         <f t="array" aca="1" ref="C39" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>7.7812472000000001</v>
       </c>
-      <c r="D39" s="21" cm="1">
+      <c r="D39" s="18" cm="1">
         <f t="array" aca="1" ref="D39" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>23.866928700999999</v>
       </c>
-      <c r="E39" s="21" cm="1">
+      <c r="E39" s="18" cm="1">
         <f t="array" aca="1" ref="E39" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>56.255735199999997</v>
       </c>
-      <c r="F39" s="21" cm="1">
+      <c r="F39" s="18" cm="1">
         <f t="array" aca="1" ref="F39" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>97.706145098999997</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="21">
+      <c r="A40" s="18">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="21" cm="1">
+      <c r="B40" s="18" cm="1">
         <f t="array" aca="1" ref="B40" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>2.764931399</v>
       </c>
-      <c r="C40" s="21" cm="1">
+      <c r="C40" s="18" cm="1">
         <f t="array" aca="1" ref="C40" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>2.7997131</v>
       </c>
-      <c r="D40" s="21" cm="1">
+      <c r="D40" s="18" cm="1">
         <f t="array" aca="1" ref="D40" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>8.3343439000000004</v>
       </c>
-      <c r="E40" s="21" cm="1">
+      <c r="E40" s="18" cm="1">
         <f t="array" aca="1" ref="E40" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>32.516074199999998</v>
       </c>
-      <c r="F40" s="21" cm="1">
+      <c r="F40" s="18" cm="1">
         <f t="array" aca="1" ref="F40" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>58.2724853</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="21">
+      <c r="A41" s="18">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="21" cm="1">
+      <c r="B41" s="18" cm="1">
         <f t="array" aca="1" ref="B41" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>4.4459331999999998</v>
       </c>
-      <c r="C41" s="21" cm="1">
+      <c r="C41" s="18" cm="1">
         <f t="array" aca="1" ref="C41" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>3.2838699</v>
       </c>
-      <c r="D41" s="21" cm="1">
+      <c r="D41" s="18" cm="1">
         <f t="array" aca="1" ref="D41" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>12.484595800999999</v>
       </c>
-      <c r="E41" s="21" cm="1">
+      <c r="E41" s="18" cm="1">
         <f t="array" aca="1" ref="E41" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>8.7799068009999992</v>
       </c>
-      <c r="F41" s="21" cm="1">
+      <c r="F41" s="18" cm="1">
         <f t="array" aca="1" ref="F41" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>6.4863448989999997</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="21">
+      <c r="A42" s="18">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="21" cm="1">
+      <c r="B42" s="18" cm="1">
         <f t="array" aca="1" ref="B42" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>2.1299601000000001E-2</v>
       </c>
-      <c r="C42" s="21" cm="1">
+      <c r="C42" s="18" cm="1">
         <f t="array" aca="1" ref="C42" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>2.0064698999999998E-2</v>
       </c>
-      <c r="D42" s="21" cm="1">
+      <c r="D42" s="18" cm="1">
         <f t="array" aca="1" ref="D42" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>2.0438199000000001E-2</v>
       </c>
-      <c r="E42" s="21" cm="1">
+      <c r="E42" s="18" cm="1">
         <f t="array" aca="1" ref="E42" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>2.3069200000000002E-2</v>
       </c>
-      <c r="F42" s="21" cm="1">
+      <c r="F42" s="18" cm="1">
         <f t="array" aca="1" ref="F42" ca="1">INDIRECT(_xlfn.CONCAT("compTimes",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>2.2420598999999999E-2</v>
       </c>
@@ -7392,91 +8317,92 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="12" width="9.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="21" customWidth="1"/>
+    <col min="10" max="12" width="9.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="18" customWidth="1"/>
+    <col min="19" max="19" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="31" t="s">
+    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32">
+      <c r="G1" s="29">
         <v>0.2</v>
       </c>
       <c r="I1" s="1"/>
-      <c r="J1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="28" t="s">
+      <c r="J1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="17">
         <f>B2+1</f>
         <v>2</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <f>C2+1</f>
         <v>3</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="17">
         <f>D2+1</f>
         <v>4</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="17">
         <f>E2+1</f>
         <v>5</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="20" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="19">
         <v>2</v>
       </c>
-      <c r="L2" s="22">
+      <c r="L2" s="19">
         <v>3</v>
       </c>
-      <c r="M2" s="22">
+      <c r="M2" s="19">
         <v>4</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="19">
         <v>5</v>
       </c>
-      <c r="O2" s="29"/>
+      <c r="O2" s="26"/>
       <c r="Q2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>1</f>
         <v>1</v>
@@ -7505,27 +8431,27 @@
         <f ca="1">AVERAGE(B3:F3)</f>
         <v>2009236.4</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="13">
         <v>1</v>
       </c>
-      <c r="J3" s="15">
-        <f t="array" aca="1" ref="J3" ca="1">IF(INDEX($B$3:$G$22,$Q3,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q3,COLUMN()-COLUMN($I$7)))</f>
+      <c r="J3" s="14" cm="1">
+        <f t="array" aca="1" ref="J3" ca="1">IF(INDEX($B$3:$G$42,$Q3,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q3,COLUMN()-COLUMN($I$7)))</f>
         <v>11426</v>
       </c>
-      <c r="K3" s="15">
-        <f t="array" aca="1" ref="K3" ca="1">IF(INDEX($B$3:$G$22,$Q3,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q3,COLUMN()-COLUMN($I$7)))</f>
+      <c r="K3" s="14" cm="1">
+        <f t="array" aca="1" ref="K3" ca="1">IF(INDEX($B$3:$G$42,$Q3,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q3,COLUMN()-COLUMN($I$7)))</f>
         <v>11426</v>
       </c>
-      <c r="L3" s="15">
-        <f t="array" aca="1" ref="L3" ca="1">IF(INDEX($B$3:$G$22,$Q3,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q3,COLUMN()-COLUMN($I$7)))</f>
+      <c r="L3" s="14" cm="1">
+        <f t="array" aca="1" ref="L3" ca="1">IF(INDEX($B$3:$G$42,$Q3,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q3,COLUMN()-COLUMN($I$7)))</f>
         <v>11435</v>
       </c>
-      <c r="M3" s="15">
-        <f t="array" aca="1" ref="M3" ca="1">IF(INDEX($B$3:$G$22,$Q3,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q3,COLUMN()-COLUMN($I$7)))</f>
+      <c r="M3" s="14" cm="1">
+        <f t="array" aca="1" ref="M3" ca="1">IF(INDEX($B$3:$G$42,$Q3,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q3,COLUMN()-COLUMN($I$7)))</f>
         <v>11896</v>
       </c>
-      <c r="N3" s="15" t="str">
-        <f t="array" aca="1" ref="N3" ca="1">IF(INDEX($B$3:$G$22,$Q3,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q3,COLUMN()-COLUMN($I$7)))</f>
+      <c r="N3" s="14" t="str" cm="1">
+        <f t="array" aca="1" ref="N3" ca="1">IF(INDEX($B$3:$G$42,$Q3,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q3,COLUMN()-COLUMN($I$7)))</f>
         <v>inf</v>
       </c>
       <c r="O3" s="8">
@@ -7535,8 +8461,26 @@
       <c r="Q3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
+      <c r="U3" s="19">
+        <v>2</v>
+      </c>
+      <c r="V3" s="19">
+        <v>3</v>
+      </c>
+      <c r="W3" s="19">
+        <v>4</v>
+      </c>
+      <c r="X3" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A42" si="0">A3+1</f>
         <v>2</v>
@@ -7561,32 +8505,32 @@
         <f t="array" aca="1" ref="F4" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>7466</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="18">
         <f t="shared" ref="G4:G42" ca="1" si="1">AVERAGE(B4:F4)</f>
         <v>7466</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <f t="shared" ref="I4:I12" si="2">I3+1</f>
         <v>2</v>
       </c>
-      <c r="J4" s="17">
-        <f t="array" aca="1" ref="J4" ca="1">IF(INDEX($B$3:$G$22,$Q4,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q4,COLUMN()-COLUMN($I$7)))</f>
+      <c r="J4" s="16" cm="1">
+        <f t="array" aca="1" ref="J4" ca="1">IF(INDEX($B$3:$G$42,$Q4,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q4,COLUMN()-COLUMN($I$7)))</f>
         <v>12980</v>
       </c>
-      <c r="K4" s="17">
-        <f t="array" aca="1" ref="K4" ca="1">IF(INDEX($B$3:$G$22,$Q4,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q4,COLUMN()-COLUMN($I$7)))</f>
+      <c r="K4" s="16" cm="1">
+        <f t="array" aca="1" ref="K4" ca="1">IF(INDEX($B$3:$G$42,$Q4,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q4,COLUMN()-COLUMN($I$7)))</f>
         <v>12980</v>
       </c>
-      <c r="L4" s="17">
-        <f t="array" aca="1" ref="L4" ca="1">IF(INDEX($B$3:$G$22,$Q4,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q4,COLUMN()-COLUMN($I$7)))</f>
+      <c r="L4" s="16" cm="1">
+        <f t="array" aca="1" ref="L4" ca="1">IF(INDEX($B$3:$G$42,$Q4,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q4,COLUMN()-COLUMN($I$7)))</f>
         <v>12980</v>
       </c>
-      <c r="M4" s="17">
-        <f t="array" aca="1" ref="M4" ca="1">IF(INDEX($B$3:$G$22,$Q4,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q4,COLUMN()-COLUMN($I$7)))</f>
+      <c r="M4" s="16" cm="1">
+        <f t="array" aca="1" ref="M4" ca="1">IF(INDEX($B$3:$G$42,$Q4,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q4,COLUMN()-COLUMN($I$7)))</f>
         <v>12980</v>
       </c>
-      <c r="N4" s="17">
-        <f t="array" aca="1" ref="N4" ca="1">IF(INDEX($B$3:$G$22,$Q4,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q4,COLUMN()-COLUMN($I$7)))</f>
+      <c r="N4" s="16" cm="1">
+        <f t="array" aca="1" ref="N4" ca="1">IF(INDEX($B$3:$G$42,$Q4,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q4,COLUMN()-COLUMN($I$7)))</f>
         <v>13087</v>
       </c>
       <c r="O4" s="9">
@@ -7596,8 +8540,31 @@
       <c r="Q4" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S4" s="30">
+        <v>17</v>
+      </c>
+      <c r="T4" cm="1">
+        <f t="array" aca="1" ref="T4" ca="1">INDEX($J$3:$N$27,$S4,T$3)</f>
+        <v>13275</v>
+      </c>
+      <c r="U4" s="18" cm="1">
+        <f t="array" aca="1" ref="U4" ca="1">INDEX($J$3:$N$27,$S4,U$3)</f>
+        <v>13275</v>
+      </c>
+      <c r="V4" s="18" cm="1">
+        <f t="array" aca="1" ref="V4" ca="1">INDEX($J$3:$N$27,$S4,V$3)</f>
+        <v>13275</v>
+      </c>
+      <c r="W4" s="18" cm="1">
+        <f t="array" aca="1" ref="W4" ca="1">INDEX($J$3:$N$27,$S4,W$3)</f>
+        <v>13455</v>
+      </c>
+      <c r="X4" s="18" cm="1">
+        <f t="array" aca="1" ref="X4" ca="1">IF(INDEX($J$3:$N$27,$S4,X$3)="inf",999999,INDEX($J$3:$N$27,$S4,X$3))</f>
+        <v>13855</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7622,43 +8589,44 @@
         <f t="array" aca="1" ref="F5" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>13087</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>13001.4</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J5" s="17">
-        <f t="array" aca="1" ref="J5" ca="1">IF(INDEX($B$3:$G$22,$Q5,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q5,COLUMN()-COLUMN($I$7)))</f>
-        <v>17628</v>
-      </c>
-      <c r="K5" s="17">
-        <f t="array" aca="1" ref="K5" ca="1">IF(INDEX($B$3:$G$22,$Q5,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q5,COLUMN()-COLUMN($I$7)))</f>
-        <v>17628</v>
-      </c>
-      <c r="L5" s="17">
-        <f t="array" aca="1" ref="L5" ca="1">IF(INDEX($B$3:$G$22,$Q5,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q5,COLUMN()-COLUMN($I$7)))</f>
-        <v>17972</v>
-      </c>
-      <c r="M5" s="17" t="str">
-        <f t="array" aca="1" ref="M5" ca="1">IF(INDEX($B$3:$G$22,$Q5,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q5,COLUMN()-COLUMN($I$7)))</f>
-        <v>inf</v>
-      </c>
-      <c r="N5" s="17" t="str">
-        <f t="array" aca="1" ref="N5" ca="1">IF(INDEX($B$3:$G$22,$Q5,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q5,COLUMN()-COLUMN($I$7)))</f>
+      <c r="J5" s="16" cm="1">
+        <f t="array" aca="1" ref="J5" ca="1">IF(INDEX($B$3:$G$42,$Q5,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q5,COLUMN()-COLUMN($I$7)))</f>
+        <v>9742</v>
+      </c>
+      <c r="K5" s="16" cm="1">
+        <f t="array" aca="1" ref="K5" ca="1">IF(INDEX($B$3:$G$42,$Q5,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q5,COLUMN()-COLUMN($I$7)))</f>
+        <v>9742</v>
+      </c>
+      <c r="L5" s="16" cm="1">
+        <f t="array" aca="1" ref="L5" ca="1">IF(INDEX($B$3:$G$42,$Q5,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q5,COLUMN()-COLUMN($I$7)))</f>
+        <v>9742</v>
+      </c>
+      <c r="M5" s="16" cm="1">
+        <f t="array" aca="1" ref="M5" ca="1">IF(INDEX($B$3:$G$42,$Q5,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q5,COLUMN()-COLUMN($I$7)))</f>
+        <v>9742</v>
+      </c>
+      <c r="N5" s="16" t="str" cm="1">
+        <f t="array" aca="1" ref="N5" ca="1">IF(INDEX($B$3:$G$42,$Q5,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q5,COLUMN()-COLUMN($I$7)))</f>
         <v>inf</v>
       </c>
       <c r="O5" s="9">
         <f ca="1">AVERAGE(J5:N5)</f>
-        <v>17742.666666666668</v>
+        <v>9742</v>
       </c>
       <c r="Q5" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Q4:Q42" si="3">Q4+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7683,43 +8651,44 @@
         <f t="array" aca="1" ref="F6" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>9999999</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>2007793.4</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J6" s="17">
-        <f t="array" aca="1" ref="J6" ca="1">IF(INDEX($B$3:$G$22,$Q6,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q6,COLUMN()-COLUMN($I$7)))</f>
-        <v>16423</v>
-      </c>
-      <c r="K6" s="17">
-        <f t="array" aca="1" ref="K6" ca="1">IF(INDEX($B$3:$G$22,$Q6,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q6,COLUMN()-COLUMN($I$7)))</f>
-        <v>16423</v>
-      </c>
-      <c r="L6" s="17">
-        <f t="array" aca="1" ref="L6" ca="1">IF(INDEX($B$3:$G$22,$Q6,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q6,COLUMN()-COLUMN($I$7)))</f>
-        <v>16443</v>
-      </c>
-      <c r="M6" s="17">
-        <f t="array" aca="1" ref="M6" ca="1">IF(INDEX($B$3:$G$22,$Q6,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q6,COLUMN()-COLUMN($I$7)))</f>
-        <v>16443</v>
-      </c>
-      <c r="N6" s="17">
-        <f t="array" aca="1" ref="N6" ca="1">IF(INDEX($B$3:$G$22,$Q6,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q6,COLUMN()-COLUMN($I$7)))</f>
-        <v>16443</v>
+      <c r="J6" s="16" cm="1">
+        <f t="array" aca="1" ref="J6" ca="1">IF(INDEX($B$3:$G$42,$Q6,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q6,COLUMN()-COLUMN($I$7)))</f>
+        <v>13807</v>
+      </c>
+      <c r="K6" s="16" cm="1">
+        <f t="array" aca="1" ref="K6" ca="1">IF(INDEX($B$3:$G$42,$Q6,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q6,COLUMN()-COLUMN($I$7)))</f>
+        <v>13807</v>
+      </c>
+      <c r="L6" s="16" cm="1">
+        <f t="array" aca="1" ref="L6" ca="1">IF(INDEX($B$3:$G$42,$Q6,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q6,COLUMN()-COLUMN($I$7)))</f>
+        <v>13837</v>
+      </c>
+      <c r="M6" s="16" cm="1">
+        <f t="array" aca="1" ref="M6" ca="1">IF(INDEX($B$3:$G$42,$Q6,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q6,COLUMN()-COLUMN($I$7)))</f>
+        <v>13986</v>
+      </c>
+      <c r="N6" s="16" cm="1">
+        <f t="array" aca="1" ref="N6" ca="1">IF(INDEX($B$3:$G$42,$Q6,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q6,COLUMN()-COLUMN($I$7)))</f>
+        <v>14053</v>
       </c>
       <c r="O6" s="9">
         <f ca="1">AVERAGE(J6:N6)</f>
-        <v>16435</v>
+        <v>13898</v>
       </c>
       <c r="Q6" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7744,43 +8713,44 @@
         <f t="array" aca="1" ref="F7" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>14053</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>13898</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="15">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="J7" s="17">
-        <f t="array" aca="1" ref="J7" ca="1">IF(INDEX($B$3:$G$22,$Q7,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q7,COLUMN()-COLUMN($I$7)))</f>
-        <v>6979</v>
-      </c>
-      <c r="K7" s="17">
-        <f t="array" aca="1" ref="K7" ca="1">IF(INDEX($B$3:$G$22,$Q7,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q7,COLUMN()-COLUMN($I$7)))</f>
-        <v>6979</v>
-      </c>
-      <c r="L7" s="17">
-        <f t="array" aca="1" ref="L7" ca="1">IF(INDEX($B$3:$G$22,$Q7,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q7,COLUMN()-COLUMN($I$7)))</f>
-        <v>6979</v>
-      </c>
-      <c r="M7" s="17">
-        <f t="array" aca="1" ref="M7" ca="1">IF(INDEX($B$3:$G$22,$Q7,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q7,COLUMN()-COLUMN($I$7)))</f>
-        <v>6979</v>
-      </c>
-      <c r="N7" s="17">
-        <f t="array" aca="1" ref="N7" ca="1">IF(INDEX($B$3:$G$22,$Q7,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q7,COLUMN()-COLUMN($I$7)))</f>
-        <v>6979</v>
+      <c r="J7" s="16" cm="1">
+        <f t="array" aca="1" ref="J7" ca="1">IF(INDEX($B$3:$G$42,$Q7,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q7,COLUMN()-COLUMN($I$7)))</f>
+        <v>17628</v>
+      </c>
+      <c r="K7" s="16" cm="1">
+        <f t="array" aca="1" ref="K7" ca="1">IF(INDEX($B$3:$G$42,$Q7,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q7,COLUMN()-COLUMN($I$7)))</f>
+        <v>17628</v>
+      </c>
+      <c r="L7" s="16" cm="1">
+        <f t="array" aca="1" ref="L7" ca="1">IF(INDEX($B$3:$G$42,$Q7,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q7,COLUMN()-COLUMN($I$7)))</f>
+        <v>17972</v>
+      </c>
+      <c r="M7" s="16" t="str" cm="1">
+        <f t="array" aca="1" ref="M7" ca="1">IF(INDEX($B$3:$G$42,$Q7,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q7,COLUMN()-COLUMN($I$7)))</f>
+        <v>inf</v>
+      </c>
+      <c r="N7" s="16" t="str" cm="1">
+        <f t="array" aca="1" ref="N7" ca="1">IF(INDEX($B$3:$G$42,$Q7,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q7,COLUMN()-COLUMN($I$7)))</f>
+        <v>inf</v>
       </c>
       <c r="O7" s="9">
         <f ca="1">AVERAGE(J7:N7)</f>
-        <v>6979</v>
+        <v>17742.666666666668</v>
       </c>
       <c r="Q7" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7805,43 +8775,44 @@
         <f t="array" aca="1" ref="F8" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>9999999</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>4010645.2</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="15">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="J8" s="17">
-        <f t="array" aca="1" ref="J8" ca="1">IF(INDEX($B$3:$G$22,$Q8,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q8,COLUMN()-COLUMN($I$7)))</f>
-        <v>9585</v>
-      </c>
-      <c r="K8" s="17">
-        <f t="array" aca="1" ref="K8" ca="1">IF(INDEX($B$3:$G$22,$Q8,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q8,COLUMN()-COLUMN($I$7)))</f>
-        <v>9585</v>
-      </c>
-      <c r="L8" s="17">
-        <f t="array" aca="1" ref="L8" ca="1">IF(INDEX($B$3:$G$22,$Q8,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q8,COLUMN()-COLUMN($I$7)))</f>
-        <v>9585</v>
-      </c>
-      <c r="M8" s="17">
-        <f t="array" aca="1" ref="M8" ca="1">IF(INDEX($B$3:$G$22,$Q8,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q8,COLUMN()-COLUMN($I$7)))</f>
-        <v>9585</v>
-      </c>
-      <c r="N8" s="17">
-        <f t="array" aca="1" ref="N8" ca="1">IF(INDEX($B$3:$G$22,$Q8,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q8,COLUMN()-COLUMN($I$7)))</f>
-        <v>9585</v>
+      <c r="J8" s="16" cm="1">
+        <f t="array" aca="1" ref="J8" ca="1">IF(INDEX($B$3:$G$42,$Q8,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q8,COLUMN()-COLUMN($I$7)))</f>
+        <v>16423</v>
+      </c>
+      <c r="K8" s="16" cm="1">
+        <f t="array" aca="1" ref="K8" ca="1">IF(INDEX($B$3:$G$42,$Q8,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q8,COLUMN()-COLUMN($I$7)))</f>
+        <v>16423</v>
+      </c>
+      <c r="L8" s="16" cm="1">
+        <f t="array" aca="1" ref="L8" ca="1">IF(INDEX($B$3:$G$42,$Q8,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q8,COLUMN()-COLUMN($I$7)))</f>
+        <v>16443</v>
+      </c>
+      <c r="M8" s="16" cm="1">
+        <f t="array" aca="1" ref="M8" ca="1">IF(INDEX($B$3:$G$42,$Q8,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q8,COLUMN()-COLUMN($I$7)))</f>
+        <v>16443</v>
+      </c>
+      <c r="N8" s="16" cm="1">
+        <f t="array" aca="1" ref="N8" ca="1">IF(INDEX($B$3:$G$42,$Q8,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q8,COLUMN()-COLUMN($I$7)))</f>
+        <v>16443</v>
       </c>
       <c r="O8" s="9">
         <f ca="1">AVERAGE(J8:N8)</f>
-        <v>9585</v>
+        <v>16435</v>
       </c>
       <c r="Q8" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7866,32 +8837,32 @@
         <f t="array" aca="1" ref="F9" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>16443</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>16435</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="15">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="J9" s="17">
-        <f t="array" aca="1" ref="J9" ca="1">IF(INDEX($B$3:$G$22,$Q9,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q9,COLUMN()-COLUMN($I$7)))</f>
+      <c r="J9" s="16" cm="1">
+        <f t="array" aca="1" ref="J9" ca="1">IF(INDEX($B$3:$G$42,$Q9,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q9,COLUMN()-COLUMN($I$7)))</f>
         <v>13276</v>
       </c>
-      <c r="K9" s="17">
-        <f t="array" aca="1" ref="K9" ca="1">IF(INDEX($B$3:$G$22,$Q9,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q9,COLUMN()-COLUMN($I$7)))</f>
+      <c r="K9" s="16" cm="1">
+        <f t="array" aca="1" ref="K9" ca="1">IF(INDEX($B$3:$G$42,$Q9,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q9,COLUMN()-COLUMN($I$7)))</f>
         <v>13386</v>
       </c>
-      <c r="L9" s="17">
-        <f t="array" aca="1" ref="L9" ca="1">IF(INDEX($B$3:$G$22,$Q9,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q9,COLUMN()-COLUMN($I$7)))</f>
+      <c r="L9" s="16" cm="1">
+        <f t="array" aca="1" ref="L9" ca="1">IF(INDEX($B$3:$G$42,$Q9,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q9,COLUMN()-COLUMN($I$7)))</f>
         <v>13474</v>
       </c>
-      <c r="M9" s="17" t="str">
-        <f t="array" aca="1" ref="M9" ca="1">IF(INDEX($B$3:$G$22,$Q9,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q9,COLUMN()-COLUMN($I$7)))</f>
+      <c r="M9" s="16" t="str" cm="1">
+        <f t="array" aca="1" ref="M9" ca="1">IF(INDEX($B$3:$G$42,$Q9,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q9,COLUMN()-COLUMN($I$7)))</f>
         <v>inf</v>
       </c>
-      <c r="N9" s="17" t="str">
-        <f t="array" aca="1" ref="N9" ca="1">IF(INDEX($B$3:$G$22,$Q9,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q9,COLUMN()-COLUMN($I$7)))</f>
+      <c r="N9" s="16" t="str" cm="1">
+        <f t="array" aca="1" ref="N9" ca="1">IF(INDEX($B$3:$G$42,$Q9,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q9,COLUMN()-COLUMN($I$7)))</f>
         <v>inf</v>
       </c>
       <c r="O9" s="9">
@@ -7902,7 +8873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7927,43 +8898,43 @@
         <f t="array" aca="1" ref="F10" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>6979</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>6979</v>
       </c>
-      <c r="I10" s="16">
-        <f t="shared" si="2"/>
+      <c r="I10" s="15">
+        <f t="shared" ref="I10:I26" si="4">I9+1</f>
         <v>8</v>
       </c>
-      <c r="J10" s="17">
-        <f t="array" aca="1" ref="J10" ca="1">IF(INDEX($B$3:$G$22,$Q10,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q10,COLUMN()-COLUMN($I$7)))</f>
-        <v>13232</v>
-      </c>
-      <c r="K10" s="17">
-        <f t="array" aca="1" ref="K10" ca="1">IF(INDEX($B$3:$G$22,$Q10,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q10,COLUMN()-COLUMN($I$7)))</f>
-        <v>13232</v>
-      </c>
-      <c r="L10" s="17">
-        <f t="array" aca="1" ref="L10" ca="1">IF(INDEX($B$3:$G$22,$Q10,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q10,COLUMN()-COLUMN($I$7)))</f>
-        <v>13232</v>
-      </c>
-      <c r="M10" s="17">
-        <f t="array" aca="1" ref="M10" ca="1">IF(INDEX($B$3:$G$22,$Q10,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q10,COLUMN()-COLUMN($I$7)))</f>
-        <v>13232</v>
-      </c>
-      <c r="N10" s="17">
-        <f t="array" aca="1" ref="N10" ca="1">IF(INDEX($B$3:$G$22,$Q10,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q10,COLUMN()-COLUMN($I$7)))</f>
-        <v>13232</v>
+      <c r="J10" s="16" cm="1">
+        <f t="array" aca="1" ref="J10" ca="1">IF(INDEX($B$3:$G$42,$Q10,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q10,COLUMN()-COLUMN($I$7)))</f>
+        <v>11318</v>
+      </c>
+      <c r="K10" s="16" cm="1">
+        <f t="array" aca="1" ref="K10" ca="1">IF(INDEX($B$3:$G$42,$Q10,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q10,COLUMN()-COLUMN($I$7)))</f>
+        <v>11318</v>
+      </c>
+      <c r="L10" s="16" cm="1">
+        <f t="array" aca="1" ref="L10" ca="1">IF(INDEX($B$3:$G$42,$Q10,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q10,COLUMN()-COLUMN($I$7)))</f>
+        <v>11345</v>
+      </c>
+      <c r="M10" s="16" cm="1">
+        <f t="array" aca="1" ref="M10" ca="1">IF(INDEX($B$3:$G$42,$Q10,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q10,COLUMN()-COLUMN($I$7)))</f>
+        <v>11464</v>
+      </c>
+      <c r="N10" s="16" cm="1">
+        <f t="array" aca="1" ref="N10" ca="1">IF(INDEX($B$3:$G$42,$Q10,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q10,COLUMN()-COLUMN($I$7)))</f>
+        <v>11464</v>
       </c>
       <c r="O10" s="9">
-        <f ca="1">AVERAGE(J10:N10)</f>
-        <v>13232</v>
+        <f t="shared" ref="O10:O26" ca="1" si="5">AVERAGE(J10:N10)</f>
+        <v>11381.8</v>
       </c>
       <c r="Q10" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7988,43 +8959,43 @@
         <f t="array" aca="1" ref="F11" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>9585</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>9585</v>
       </c>
-      <c r="I11" s="16">
-        <f t="shared" si="2"/>
+      <c r="I11" s="15">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J11" s="17">
-        <f t="array" aca="1" ref="J11" ca="1">IF(INDEX($B$3:$G$22,$Q11,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q11,COLUMN()-COLUMN($I$7)))</f>
-        <v>16589</v>
-      </c>
-      <c r="K11" s="17">
-        <f t="array" aca="1" ref="K11" ca="1">IF(INDEX($B$3:$G$22,$Q11,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q11,COLUMN()-COLUMN($I$7)))</f>
-        <v>16589</v>
-      </c>
-      <c r="L11" s="17">
-        <f t="array" aca="1" ref="L11" ca="1">IF(INDEX($B$3:$G$22,$Q11,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q11,COLUMN()-COLUMN($I$7)))</f>
-        <v>16589</v>
-      </c>
-      <c r="M11" s="17">
-        <f t="array" aca="1" ref="M11" ca="1">IF(INDEX($B$3:$G$22,$Q11,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q11,COLUMN()-COLUMN($I$7)))</f>
-        <v>16589</v>
-      </c>
-      <c r="N11" s="17">
-        <f t="array" aca="1" ref="N11" ca="1">IF(INDEX($B$3:$G$22,$Q11,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q11,COLUMN()-COLUMN($I$7)))</f>
-        <v>16589</v>
+      <c r="J11" s="16" cm="1">
+        <f t="array" aca="1" ref="J11" ca="1">IF(INDEX($B$3:$G$42,$Q11,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q11,COLUMN()-COLUMN($I$7)))</f>
+        <v>20369</v>
+      </c>
+      <c r="K11" s="16" cm="1">
+        <f t="array" aca="1" ref="K11" ca="1">IF(INDEX($B$3:$G$42,$Q11,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q11,COLUMN()-COLUMN($I$7)))</f>
+        <v>20369</v>
+      </c>
+      <c r="L11" s="16" cm="1">
+        <f t="array" aca="1" ref="L11" ca="1">IF(INDEX($B$3:$G$42,$Q11,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q11,COLUMN()-COLUMN($I$7)))</f>
+        <v>20376</v>
+      </c>
+      <c r="M11" s="16" cm="1">
+        <f t="array" aca="1" ref="M11" ca="1">IF(INDEX($B$3:$G$42,$Q11,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q11,COLUMN()-COLUMN($I$7)))</f>
+        <v>20481</v>
+      </c>
+      <c r="N11" s="16" cm="1">
+        <f t="array" aca="1" ref="N11" ca="1">IF(INDEX($B$3:$G$42,$Q11,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q11,COLUMN()-COLUMN($I$7)))</f>
+        <v>21612</v>
       </c>
       <c r="O11" s="9">
-        <f ca="1">AVERAGE(J11:N11)</f>
-        <v>16589</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>20641.400000000001</v>
       </c>
       <c r="Q11" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8049,43 +9020,43 @@
         <f t="array" aca="1" ref="F12" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>9999999</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>4008026.8</v>
       </c>
-      <c r="I12" s="18">
-        <f t="shared" si="2"/>
+      <c r="I12" s="15">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="J12" s="19">
-        <f t="array" aca="1" ref="J12" ca="1">IF(INDEX($B$3:$G$22,$Q12,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q12,COLUMN()-COLUMN($I$7)))</f>
-        <v>10653</v>
-      </c>
-      <c r="K12" s="19">
-        <f t="array" aca="1" ref="K12" ca="1">IF(INDEX($B$3:$G$22,$Q12,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q12,COLUMN()-COLUMN($I$7)))</f>
-        <v>10653</v>
-      </c>
-      <c r="L12" s="19">
-        <f t="array" aca="1" ref="L12" ca="1">IF(INDEX($B$3:$G$22,$Q12,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q12,COLUMN()-COLUMN($I$7)))</f>
-        <v>10653</v>
-      </c>
-      <c r="M12" s="19">
-        <f t="array" aca="1" ref="M12" ca="1">IF(INDEX($B$3:$G$22,$Q12,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q12,COLUMN()-COLUMN($I$7)))</f>
-        <v>10653</v>
-      </c>
-      <c r="N12" s="19">
-        <f t="array" aca="1" ref="N12" ca="1">IF(INDEX($B$3:$G$22,$Q12,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$22,$Q12,COLUMN()-COLUMN($I$7)))</f>
-        <v>10653</v>
-      </c>
-      <c r="O12" s="10">
-        <f ca="1">AVERAGE(J12:N12)</f>
-        <v>10653</v>
+      <c r="J12" s="16" cm="1">
+        <f t="array" aca="1" ref="J12" ca="1">IF(INDEX($B$3:$G$42,$Q12,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q12,COLUMN()-COLUMN($I$7)))</f>
+        <v>14548</v>
+      </c>
+      <c r="K12" s="16" cm="1">
+        <f t="array" aca="1" ref="K12" ca="1">IF(INDEX($B$3:$G$42,$Q12,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q12,COLUMN()-COLUMN($I$7)))</f>
+        <v>14548</v>
+      </c>
+      <c r="L12" s="16" cm="1">
+        <f t="array" aca="1" ref="L12" ca="1">IF(INDEX($B$3:$G$42,$Q12,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q12,COLUMN()-COLUMN($I$7)))</f>
+        <v>14555</v>
+      </c>
+      <c r="M12" s="16" t="str" cm="1">
+        <f t="array" aca="1" ref="M12" ca="1">IF(INDEX($B$3:$G$42,$Q12,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q12,COLUMN()-COLUMN($I$7)))</f>
+        <v>inf</v>
+      </c>
+      <c r="N12" s="16" t="str" cm="1">
+        <f t="array" aca="1" ref="N12" ca="1">IF(INDEX($B$3:$G$42,$Q12,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q12,COLUMN()-COLUMN($I$7)))</f>
+        <v>inf</v>
+      </c>
+      <c r="O12" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>14550.333333333334</v>
       </c>
       <c r="Q12" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8110,12 +9081,44 @@
         <f t="array" aca="1" ref="F13" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>9999999</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>9999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I13" s="15">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="J13" s="16" cm="1">
+        <f t="array" aca="1" ref="J13" ca="1">IF(INDEX($B$3:$G$42,$Q13,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q13,COLUMN()-COLUMN($I$7)))</f>
+        <v>14941</v>
+      </c>
+      <c r="K13" s="16" cm="1">
+        <f t="array" aca="1" ref="K13" ca="1">IF(INDEX($B$3:$G$42,$Q13,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q13,COLUMN()-COLUMN($I$7)))</f>
+        <v>14941</v>
+      </c>
+      <c r="L13" s="16" cm="1">
+        <f t="array" aca="1" ref="L13" ca="1">IF(INDEX($B$3:$G$42,$Q13,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q13,COLUMN()-COLUMN($I$7)))</f>
+        <v>14941</v>
+      </c>
+      <c r="M13" s="16" cm="1">
+        <f t="array" aca="1" ref="M13" ca="1">IF(INDEX($B$3:$G$42,$Q13,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q13,COLUMN()-COLUMN($I$7)))</f>
+        <v>14958</v>
+      </c>
+      <c r="N13" s="16" cm="1">
+        <f t="array" aca="1" ref="N13" ca="1">IF(INDEX($B$3:$G$42,$Q13,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q13,COLUMN()-COLUMN($I$7)))</f>
+        <v>14958</v>
+      </c>
+      <c r="O13" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>14947.8</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -8140,12 +9143,44 @@
         <f t="array" aca="1" ref="F14" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>11464</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>11381.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I14" s="15">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="J14" s="16" cm="1">
+        <f t="array" aca="1" ref="J14" ca="1">IF(INDEX($B$3:$G$42,$Q14,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q14,COLUMN()-COLUMN($I$7)))</f>
+        <v>10904</v>
+      </c>
+      <c r="K14" s="16" cm="1">
+        <f t="array" aca="1" ref="K14" ca="1">IF(INDEX($B$3:$G$42,$Q14,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q14,COLUMN()-COLUMN($I$7)))</f>
+        <v>10918</v>
+      </c>
+      <c r="L14" s="16" cm="1">
+        <f t="array" aca="1" ref="L14" ca="1">IF(INDEX($B$3:$G$42,$Q14,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q14,COLUMN()-COLUMN($I$7)))</f>
+        <v>10918</v>
+      </c>
+      <c r="M14" s="16" cm="1">
+        <f t="array" aca="1" ref="M14" ca="1">IF(INDEX($B$3:$G$42,$Q14,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q14,COLUMN()-COLUMN($I$7)))</f>
+        <v>10918</v>
+      </c>
+      <c r="N14" s="16" cm="1">
+        <f t="array" aca="1" ref="N14" ca="1">IF(INDEX($B$3:$G$42,$Q14,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q14,COLUMN()-COLUMN($I$7)))</f>
+        <v>11501</v>
+      </c>
+      <c r="O14" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>11031.8</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -8170,12 +9205,43 @@
         <f t="array" aca="1" ref="F15" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>13232</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>13232</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I15" s="15">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="J15" s="16" cm="1">
+        <f t="array" aca="1" ref="J15" ca="1">IF(INDEX($B$3:$G$42,$Q15,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q15,COLUMN()-COLUMN($I$7)))</f>
+        <v>13886</v>
+      </c>
+      <c r="K15" s="16" cm="1">
+        <f t="array" aca="1" ref="K15" ca="1">IF(INDEX($B$3:$G$42,$Q15,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q15,COLUMN()-COLUMN($I$7)))</f>
+        <v>13886</v>
+      </c>
+      <c r="L15" s="16" cm="1">
+        <f t="array" aca="1" ref="L15" ca="1">IF(INDEX($B$3:$G$42,$Q15,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q15,COLUMN()-COLUMN($I$7)))</f>
+        <v>13886</v>
+      </c>
+      <c r="M15" s="16" cm="1">
+        <f t="array" aca="1" ref="M15" ca="1">IF(INDEX($B$3:$G$42,$Q15,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q15,COLUMN()-COLUMN($I$7)))</f>
+        <v>13974</v>
+      </c>
+      <c r="N15" s="16" cm="1">
+        <f t="array" aca="1" ref="N15" ca="1">IF(INDEX($B$3:$G$42,$Q15,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q15,COLUMN()-COLUMN($I$7)))</f>
+        <v>14074</v>
+      </c>
+      <c r="O15" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>13941.2</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -8200,12 +9266,44 @@
         <f t="array" aca="1" ref="F16" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>21612</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>20641.400000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I16" s="15">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="J16" s="16" cm="1">
+        <f t="array" aca="1" ref="J16" ca="1">IF(INDEX($B$3:$G$42,$Q16,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q16,COLUMN()-COLUMN($I$7)))</f>
+        <v>11087</v>
+      </c>
+      <c r="K16" s="16" cm="1">
+        <f t="array" aca="1" ref="K16" ca="1">IF(INDEX($B$3:$G$42,$Q16,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q16,COLUMN()-COLUMN($I$7)))</f>
+        <v>11087</v>
+      </c>
+      <c r="L16" s="16" cm="1">
+        <f t="array" aca="1" ref="L16" ca="1">IF(INDEX($B$3:$G$42,$Q16,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q16,COLUMN()-COLUMN($I$7)))</f>
+        <v>11087</v>
+      </c>
+      <c r="M16" s="16" cm="1">
+        <f t="array" aca="1" ref="M16" ca="1">IF(INDEX($B$3:$G$42,$Q16,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q16,COLUMN()-COLUMN($I$7)))</f>
+        <v>11094</v>
+      </c>
+      <c r="N16" s="16" cm="1">
+        <f t="array" aca="1" ref="N16" ca="1">IF(INDEX($B$3:$G$42,$Q16,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q16,COLUMN()-COLUMN($I$7)))</f>
+        <v>11437</v>
+      </c>
+      <c r="O16" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>11158.4</v>
+      </c>
+      <c r="Q16" s="3">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -8230,12 +9328,44 @@
         <f t="array" aca="1" ref="F17" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>16589</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>16589</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I17" s="15">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="J17" s="16" cm="1">
+        <f t="array" aca="1" ref="J17" ca="1">IF(INDEX($B$3:$G$42,$Q17,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q17,COLUMN()-COLUMN($I$7)))</f>
+        <v>12563</v>
+      </c>
+      <c r="K17" s="16" cm="1">
+        <f t="array" aca="1" ref="K17" ca="1">IF(INDEX($B$3:$G$42,$Q17,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q17,COLUMN()-COLUMN($I$7)))</f>
+        <v>12563</v>
+      </c>
+      <c r="L17" s="16" cm="1">
+        <f t="array" aca="1" ref="L17" ca="1">IF(INDEX($B$3:$G$42,$Q17,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q17,COLUMN()-COLUMN($I$7)))</f>
+        <v>12633</v>
+      </c>
+      <c r="M17" s="16" cm="1">
+        <f t="array" aca="1" ref="M17" ca="1">IF(INDEX($B$3:$G$42,$Q17,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q17,COLUMN()-COLUMN($I$7)))</f>
+        <v>12645</v>
+      </c>
+      <c r="N17" s="16" cm="1">
+        <f t="array" aca="1" ref="N17" ca="1">IF(INDEX($B$3:$G$42,$Q17,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q17,COLUMN()-COLUMN($I$7)))</f>
+        <v>12817</v>
+      </c>
+      <c r="O17" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>12644.2</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -8260,12 +9390,43 @@
         <f t="array" aca="1" ref="F18" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>9999999</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>4008729.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I18" s="15">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="J18" s="16" cm="1">
+        <f t="array" aca="1" ref="J18" ca="1">IF(INDEX($B$3:$G$42,$Q18,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q18,COLUMN()-COLUMN($I$7)))</f>
+        <v>15434</v>
+      </c>
+      <c r="K18" s="16" cm="1">
+        <f t="array" aca="1" ref="K18" ca="1">IF(INDEX($B$3:$G$42,$Q18,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q18,COLUMN()-COLUMN($I$7)))</f>
+        <v>15525</v>
+      </c>
+      <c r="L18" s="16" t="str" cm="1">
+        <f t="array" aca="1" ref="L18" ca="1">IF(INDEX($B$3:$G$42,$Q18,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q18,COLUMN()-COLUMN($I$7)))</f>
+        <v>inf</v>
+      </c>
+      <c r="M18" s="16" t="str" cm="1">
+        <f t="array" aca="1" ref="M18" ca="1">IF(INDEX($B$3:$G$42,$Q18,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q18,COLUMN()-COLUMN($I$7)))</f>
+        <v>inf</v>
+      </c>
+      <c r="N18" s="16" t="str" cm="1">
+        <f t="array" aca="1" ref="N18" ca="1">IF(INDEX($B$3:$G$42,$Q18,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q18,COLUMN()-COLUMN($I$7)))</f>
+        <v>inf</v>
+      </c>
+      <c r="O18" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>15479.5</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -8290,12 +9451,44 @@
         <f t="array" aca="1" ref="F19" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>14958</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>14947.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I19" s="15">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="J19" s="16" cm="1">
+        <f t="array" aca="1" ref="J19" ca="1">IF(INDEX($B$3:$G$42,$Q19,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q19,COLUMN()-COLUMN($I$7)))</f>
+        <v>13275</v>
+      </c>
+      <c r="K19" s="16" cm="1">
+        <f t="array" aca="1" ref="K19" ca="1">IF(INDEX($B$3:$G$42,$Q19,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q19,COLUMN()-COLUMN($I$7)))</f>
+        <v>13275</v>
+      </c>
+      <c r="L19" s="16" cm="1">
+        <f t="array" aca="1" ref="L19" ca="1">IF(INDEX($B$3:$G$42,$Q19,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q19,COLUMN()-COLUMN($I$7)))</f>
+        <v>13275</v>
+      </c>
+      <c r="M19" s="16" cm="1">
+        <f t="array" aca="1" ref="M19" ca="1">IF(INDEX($B$3:$G$42,$Q19,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q19,COLUMN()-COLUMN($I$7)))</f>
+        <v>13455</v>
+      </c>
+      <c r="N19" s="16" cm="1">
+        <f t="array" aca="1" ref="N19" ca="1">IF(INDEX($B$3:$G$42,$Q19,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q19,COLUMN()-COLUMN($I$7)))</f>
+        <v>13855</v>
+      </c>
+      <c r="O19" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>13427</v>
+      </c>
+      <c r="Q19" s="3">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -8320,12 +9513,43 @@
         <f t="array" aca="1" ref="F20" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>11501</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>11031.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I20" s="15">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="J20" s="16" cm="1">
+        <f t="array" aca="1" ref="J20" ca="1">IF(INDEX($B$3:$G$42,$Q20,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q20,COLUMN()-COLUMN($I$7)))</f>
+        <v>13716</v>
+      </c>
+      <c r="K20" s="16" cm="1">
+        <f t="array" aca="1" ref="K20" ca="1">IF(INDEX($B$3:$G$42,$Q20,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q20,COLUMN()-COLUMN($I$7)))</f>
+        <v>13716</v>
+      </c>
+      <c r="L20" s="16" cm="1">
+        <f t="array" aca="1" ref="L20" ca="1">IF(INDEX($B$3:$G$42,$Q20,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q20,COLUMN()-COLUMN($I$7)))</f>
+        <v>13746</v>
+      </c>
+      <c r="M20" s="16" t="str" cm="1">
+        <f t="array" aca="1" ref="M20" ca="1">IF(INDEX($B$3:$G$42,$Q20,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q20,COLUMN()-COLUMN($I$7)))</f>
+        <v>inf</v>
+      </c>
+      <c r="N20" s="16" t="str" cm="1">
+        <f t="array" aca="1" ref="N20" ca="1">IF(INDEX($B$3:$G$42,$Q20,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q20,COLUMN()-COLUMN($I$7)))</f>
+        <v>inf</v>
+      </c>
+      <c r="O20" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>13726</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -8350,12 +9574,44 @@
         <f t="array" aca="1" ref="F21" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>10653</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>10653</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I21" s="15">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="J21" s="16" cm="1">
+        <f t="array" aca="1" ref="J21" ca="1">IF(INDEX($B$3:$G$42,$Q21,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q21,COLUMN()-COLUMN($I$7)))</f>
+        <v>14011</v>
+      </c>
+      <c r="K21" s="16" cm="1">
+        <f t="array" aca="1" ref="K21" ca="1">IF(INDEX($B$3:$G$42,$Q21,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q21,COLUMN()-COLUMN($I$7)))</f>
+        <v>14011</v>
+      </c>
+      <c r="L21" s="16" cm="1">
+        <f t="array" aca="1" ref="L21" ca="1">IF(INDEX($B$3:$G$42,$Q21,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q21,COLUMN()-COLUMN($I$7)))</f>
+        <v>14011</v>
+      </c>
+      <c r="M21" s="16" cm="1">
+        <f t="array" aca="1" ref="M21" ca="1">IF(INDEX($B$3:$G$42,$Q21,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q21,COLUMN()-COLUMN($I$7)))</f>
+        <v>14037</v>
+      </c>
+      <c r="N21" s="16" t="str" cm="1">
+        <f t="array" aca="1" ref="N21" ca="1">IF(INDEX($B$3:$G$42,$Q21,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q21,COLUMN()-COLUMN($I$7)))</f>
+        <v>inf</v>
+      </c>
+      <c r="O21" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>14017.5</v>
+      </c>
+      <c r="Q21" s="3">
+        <f>Q20+1</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -8380,13 +9636,45 @@
         <f t="array" aca="1" ref="F22" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>9999999</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>6005237</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="21">
+      <c r="I22" s="15">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="J22" s="16" cm="1">
+        <f t="array" aca="1" ref="J22" ca="1">IF(INDEX($B$3:$G$42,$Q22,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q22,COLUMN()-COLUMN($I$7)))</f>
+        <v>13947</v>
+      </c>
+      <c r="K22" s="16" cm="1">
+        <f t="array" aca="1" ref="K22" ca="1">IF(INDEX($B$3:$G$42,$Q22,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q22,COLUMN()-COLUMN($I$7)))</f>
+        <v>13947</v>
+      </c>
+      <c r="L22" s="16" cm="1">
+        <f t="array" aca="1" ref="L22" ca="1">IF(INDEX($B$3:$G$42,$Q22,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q22,COLUMN()-COLUMN($I$7)))</f>
+        <v>13947</v>
+      </c>
+      <c r="M22" s="16" cm="1">
+        <f t="array" aca="1" ref="M22" ca="1">IF(INDEX($B$3:$G$42,$Q22,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q22,COLUMN()-COLUMN($I$7)))</f>
+        <v>13947</v>
+      </c>
+      <c r="N22" s="16" cm="1">
+        <f t="array" aca="1" ref="N22" ca="1">IF(INDEX($B$3:$G$42,$Q22,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q22,COLUMN()-COLUMN($I$7)))</f>
+        <v>13977</v>
+      </c>
+      <c r="O22" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>13953</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -8410,13 +9698,44 @@
         <f t="array" aca="1" ref="F23" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>18770</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>18770</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="21">
+      <c r="I23" s="15">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="J23" s="16" cm="1">
+        <f t="array" aca="1" ref="J23" ca="1">IF(INDEX($B$3:$G$42,$Q23,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q23,COLUMN()-COLUMN($I$7)))</f>
+        <v>10843</v>
+      </c>
+      <c r="K23" s="16" cm="1">
+        <f t="array" aca="1" ref="K23" ca="1">IF(INDEX($B$3:$G$42,$Q23,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q23,COLUMN()-COLUMN($I$7)))</f>
+        <v>10926</v>
+      </c>
+      <c r="L23" s="16" cm="1">
+        <f t="array" aca="1" ref="L23" ca="1">IF(INDEX($B$3:$G$42,$Q23,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q23,COLUMN()-COLUMN($I$7)))</f>
+        <v>10926</v>
+      </c>
+      <c r="M23" s="16" cm="1">
+        <f t="array" aca="1" ref="M23" ca="1">IF(INDEX($B$3:$G$42,$Q23,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q23,COLUMN()-COLUMN($I$7)))</f>
+        <v>10997</v>
+      </c>
+      <c r="N23" s="16" cm="1">
+        <f t="array" aca="1" ref="N23" ca="1">IF(INDEX($B$3:$G$42,$Q23,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q23,COLUMN()-COLUMN($I$7)))</f>
+        <v>11080</v>
+      </c>
+      <c r="O23" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>10954.4</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -8440,13 +9759,45 @@
         <f t="array" aca="1" ref="F24" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>14074</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>13941.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="21">
+      <c r="I24" s="15">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="J24" s="16" cm="1">
+        <f t="array" aca="1" ref="J24" ca="1">IF(INDEX($B$3:$G$42,$Q24,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q24,COLUMN()-COLUMN($I$7)))</f>
+        <v>19100</v>
+      </c>
+      <c r="K24" s="16" cm="1">
+        <f t="array" aca="1" ref="K24" ca="1">IF(INDEX($B$3:$G$42,$Q24,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q24,COLUMN()-COLUMN($I$7)))</f>
+        <v>19100</v>
+      </c>
+      <c r="L24" s="16" cm="1">
+        <f t="array" aca="1" ref="L24" ca="1">IF(INDEX($B$3:$G$42,$Q24,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q24,COLUMN()-COLUMN($I$7)))</f>
+        <v>19212</v>
+      </c>
+      <c r="M24" s="16" cm="1">
+        <f t="array" aca="1" ref="M24" ca="1">IF(INDEX($B$3:$G$42,$Q24,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q24,COLUMN()-COLUMN($I$7)))</f>
+        <v>19505</v>
+      </c>
+      <c r="N24" s="16" cm="1">
+        <f t="array" aca="1" ref="N24" ca="1">IF(INDEX($B$3:$G$42,$Q24,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q24,COLUMN()-COLUMN($I$7)))</f>
+        <v>22811</v>
+      </c>
+      <c r="O24" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>19945.599999999999</v>
+      </c>
+      <c r="Q24" s="3">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -8470,13 +9821,44 @@
         <f t="array" aca="1" ref="F25" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>11437</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>11158.4</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="21">
+      <c r="I25" s="15">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="J25" s="16" cm="1">
+        <f t="array" aca="1" ref="J25" ca="1">IF(INDEX($B$3:$G$42,$Q25,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q25,COLUMN()-COLUMN($I$7)))</f>
+        <v>17547</v>
+      </c>
+      <c r="K25" s="16" cm="1">
+        <f t="array" aca="1" ref="K25" ca="1">IF(INDEX($B$3:$G$42,$Q25,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q25,COLUMN()-COLUMN($I$7)))</f>
+        <v>17547</v>
+      </c>
+      <c r="L25" s="16" cm="1">
+        <f t="array" aca="1" ref="L25" ca="1">IF(INDEX($B$3:$G$42,$Q25,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q25,COLUMN()-COLUMN($I$7)))</f>
+        <v>17622</v>
+      </c>
+      <c r="M25" s="16" cm="1">
+        <f t="array" aca="1" ref="M25" ca="1">IF(INDEX($B$3:$G$42,$Q25,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q25,COLUMN()-COLUMN($I$7)))</f>
+        <v>17659</v>
+      </c>
+      <c r="N25" s="16" cm="1">
+        <f t="array" aca="1" ref="N25" ca="1">IF(INDEX($B$3:$G$42,$Q25,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q25,COLUMN()-COLUMN($I$7)))</f>
+        <v>17742</v>
+      </c>
+      <c r="O25" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>17623.400000000001</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -8500,13 +9882,45 @@
         <f t="array" aca="1" ref="F26" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>12817</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>12644.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="21">
+      <c r="I26" s="15">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="J26" s="16" cm="1">
+        <f t="array" aca="1" ref="J26" ca="1">IF(INDEX($B$3:$G$42,$Q26,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q26,COLUMN()-COLUMN($I$7)))</f>
+        <v>13738</v>
+      </c>
+      <c r="K26" s="16" cm="1">
+        <f t="array" aca="1" ref="K26" ca="1">IF(INDEX($B$3:$G$42,$Q26,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q26,COLUMN()-COLUMN($I$7)))</f>
+        <v>13738</v>
+      </c>
+      <c r="L26" s="16" cm="1">
+        <f t="array" aca="1" ref="L26" ca="1">IF(INDEX($B$3:$G$42,$Q26,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q26,COLUMN()-COLUMN($I$7)))</f>
+        <v>13738</v>
+      </c>
+      <c r="M26" s="16" cm="1">
+        <f t="array" aca="1" ref="M26" ca="1">IF(INDEX($B$3:$G$42,$Q26,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q26,COLUMN()-COLUMN($I$7)))</f>
+        <v>13846</v>
+      </c>
+      <c r="N26" s="16" cm="1">
+        <f t="array" aca="1" ref="N26" ca="1">IF(INDEX($B$3:$G$42,$Q26,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q26,COLUMN()-COLUMN($I$7)))</f>
+        <v>14164</v>
+      </c>
+      <c r="O26" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>13844.8</v>
+      </c>
+      <c r="Q26" s="3">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -8530,13 +9944,45 @@
         <f t="array" aca="1" ref="F27" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>13779</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>13779</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="21">
+      <c r="I27" s="15">
+        <f t="shared" ref="I27" si="6">I26+1</f>
+        <v>25</v>
+      </c>
+      <c r="J27" s="16" cm="1">
+        <f t="array" aca="1" ref="J27" ca="1">IF(INDEX($B$3:$G$42,$Q27,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q27,COLUMN()-COLUMN($I$7)))</f>
+        <v>11848</v>
+      </c>
+      <c r="K27" s="16" cm="1">
+        <f t="array" aca="1" ref="K27" ca="1">IF(INDEX($B$3:$G$42,$Q27,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q27,COLUMN()-COLUMN($I$7)))</f>
+        <v>11848</v>
+      </c>
+      <c r="L27" s="16" cm="1">
+        <f t="array" aca="1" ref="L27" ca="1">IF(INDEX($B$3:$G$42,$Q27,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q27,COLUMN()-COLUMN($I$7)))</f>
+        <v>11848</v>
+      </c>
+      <c r="M27" s="16" t="str" cm="1">
+        <f t="array" aca="1" ref="M27" ca="1">IF(INDEX($B$3:$G$42,$Q27,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q27,COLUMN()-COLUMN($I$7)))</f>
+        <v>inf</v>
+      </c>
+      <c r="N27" s="16" t="str" cm="1">
+        <f t="array" aca="1" ref="N27" ca="1">IF(INDEX($B$3:$G$42,$Q27,COLUMN()-COLUMN($I$7))=9999999,"inf",INDEX($B$3:$G$42,$Q27,COLUMN()-COLUMN($I$7)))</f>
+        <v>inf</v>
+      </c>
+      <c r="O27" s="9">
+        <f t="shared" ref="O27" ca="1" si="7">AVERAGE(J27:N27)</f>
+        <v>11848</v>
+      </c>
+      <c r="Q27" s="3">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -8560,13 +10006,14 @@
         <f t="array" aca="1" ref="F28" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>9999999</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>6006191.2000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="21">
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -8590,13 +10037,14 @@
         <f t="array" aca="1" ref="F29" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>13855</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>13427</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="21">
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -8620,13 +10068,14 @@
         <f t="array" aca="1" ref="F30" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>16103</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>16103</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="21">
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -8650,13 +10099,14 @@
         <f t="array" aca="1" ref="F31" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>9999999</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>4008235.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="21">
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -8680,13 +10130,14 @@
         <f t="array" aca="1" ref="F32" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>9999999</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>2011213.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="21">
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -8710,13 +10161,14 @@
         <f t="array" aca="1" ref="F33" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>13977</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>13953</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="21">
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -8740,13 +10192,14 @@
         <f t="array" aca="1" ref="F34" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>14139</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>14139</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="21">
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -8770,13 +10223,14 @@
         <f t="array" aca="1" ref="F35" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>11080</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>10954.4</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="21">
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -8800,13 +10254,14 @@
         <f t="array" aca="1" ref="F36" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>22811</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>19945.599999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="21">
+      <c r="Q36" s="3"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="18">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -8830,13 +10285,14 @@
         <f t="array" aca="1" ref="F37" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>12208</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>12208</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="21">
+      <c r="Q37" s="3"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="18">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -8860,13 +10316,14 @@
         <f t="array" aca="1" ref="F38" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>9999999</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>8002765.2000000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="21">
+      <c r="Q38" s="3"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="18">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -8890,13 +10347,14 @@
         <f t="array" aca="1" ref="F39" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>17742</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>17623.400000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="21">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="18">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -8920,13 +10378,14 @@
         <f t="array" aca="1" ref="F40" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>14164</v>
       </c>
-      <c r="G40" s="21">
+      <c r="G40" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>13844.8</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="21">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="18">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -8950,13 +10409,14 @@
         <f t="array" aca="1" ref="F41" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>9999999</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G41" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>4007108.4</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="21">
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="18">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -8980,10 +10440,11 @@
         <f t="array" aca="1" ref="F42" ca="1">INDIRECT(_xlfn.CONCAT("objFun",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>9999999</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G42" s="18">
         <f t="shared" ca="1" si="1"/>
         <v>9999999</v>
       </c>
+      <c r="Q42" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9472,6 +10933,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -9497,33 +10959,33 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="8.83203125" style="21"/>
-    <col min="10" max="14" width="9.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="18"/>
+    <col min="10" max="14" width="9.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="31" t="s">
+      <c r="B1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32">
+      <c r="G1" s="29">
         <v>0.2</v>
       </c>
       <c r="I1" s="1"/>
-      <c r="J1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="30" t="s">
+      <c r="J1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="27" t="s">
         <v>4</v>
       </c>
     </row>
@@ -9534,42 +10996,42 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="17">
         <f>B2+1</f>
         <v>2</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <f>C2+1</f>
         <v>3</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="17">
         <f>D2+1</f>
         <v>4</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="17">
         <f>E2+1</f>
         <v>5</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="I2" s="23" t="s">
+      <c r="G2" s="17"/>
+      <c r="I2" s="20" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="19">
         <v>2</v>
       </c>
-      <c r="L2" s="22">
+      <c r="L2" s="19">
         <v>3</v>
       </c>
-      <c r="M2" s="22">
+      <c r="M2" s="19">
         <v>4</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="19">
         <v>5</v>
       </c>
-      <c r="O2" s="29"/>
+      <c r="O2" s="26"/>
       <c r="R2" s="3" t="s">
         <v>1</v>
       </c>
@@ -9579,27 +11041,27 @@
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="21" cm="1">
+      <c r="B3" s="18" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99035655561161873</v>
       </c>
-      <c r="C3" s="21" cm="1">
+      <c r="C3" s="18" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.80070452877008191</v>
       </c>
-      <c r="D3" s="21" cm="1">
+      <c r="D3" s="18" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.87693822889566797</v>
       </c>
-      <c r="E3" s="21" cm="1">
+      <c r="E3" s="18" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.84800969007716442</v>
       </c>
-      <c r="F3" s="21" cm="1">
+      <c r="F3" s="18" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="18">
         <f ca="1">AVERAGE(B3:F3)</f>
         <v>0.70320180067090665</v>
       </c>
@@ -9626,7 +11088,7 @@
         <f t="array" aca="1" ref="N3" ca="1">IF(INDEX($B$3:$F$22,$R3,COLUMN()-COLUMN($I$7))=0,"-",INDEX($B$3:$F$22,$R3,COLUMN()-COLUMN($I$7)))</f>
         <v>-</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="10">
         <f t="shared" ref="O3:O12" ca="1" si="0">AVERAGE(J3:N3)</f>
         <v>0.87900225083863326</v>
       </c>
@@ -9639,27 +11101,27 @@
         <f t="shared" ref="A4:A42" si="1">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="21" cm="1">
+      <c r="B4" s="18" cm="1">
         <f t="array" aca="1" ref="B4" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99999999960579811</v>
       </c>
-      <c r="C4" s="21" cm="1">
+      <c r="C4" s="18" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99991172827304486</v>
       </c>
-      <c r="D4" s="21" cm="1">
+      <c r="D4" s="18" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99546688039301701</v>
       </c>
-      <c r="E4" s="21" cm="1">
+      <c r="E4" s="18" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.97230133748116776</v>
       </c>
-      <c r="F4" s="21" cm="1">
+      <c r="F4" s="18" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.91849507265260832</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="18">
         <f t="shared" ref="G4:G42" ca="1" si="2">AVERAGE(B4:F4)</f>
         <v>0.97723500368112715</v>
       </c>
@@ -9687,7 +11149,7 @@
         <f t="array" aca="1" ref="N4" ca="1">IF(INDEX($B$3:$F$22,$R4,COLUMN()-COLUMN($I$7))=0,"-",INDEX($B$3:$F$22,$R4,COLUMN()-COLUMN($I$7)))</f>
         <v>0.82282910484441496</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>0.93220048036229597</v>
       </c>
@@ -9700,27 +11162,27 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="21" cm="1">
+      <c r="B5" s="18" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99999964169846567</v>
       </c>
-      <c r="C5" s="21" cm="1">
+      <c r="C5" s="18" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.9972690633324961</v>
       </c>
-      <c r="D5" s="21" cm="1">
+      <c r="D5" s="18" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.96345686740160252</v>
       </c>
-      <c r="E5" s="21" cm="1">
+      <c r="E5" s="18" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.87744772453450037</v>
       </c>
-      <c r="F5" s="21" cm="1">
+      <c r="F5" s="18" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.82282910484441496</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.93220048036229597</v>
       </c>
@@ -9748,7 +11210,7 @@
         <f t="array" aca="1" ref="N5" ca="1">IF(INDEX($B$3:$F$22,$R5,COLUMN()-COLUMN($I$7))=0,"-",INDEX($B$3:$F$22,$R5,COLUMN()-COLUMN($I$7)))</f>
         <v>-</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>0.87413008258366742</v>
       </c>
@@ -9761,27 +11223,27 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="21" cm="1">
+      <c r="B6" s="18" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99999546114083704</v>
       </c>
-      <c r="C6" s="21" cm="1">
+      <c r="C6" s="18" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99211414006941623</v>
       </c>
-      <c r="D6" s="21" cm="1">
+      <c r="D6" s="18" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.92995063889009788</v>
       </c>
-      <c r="E6" s="21" cm="1">
+      <c r="E6" s="18" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.80559275138662612</v>
       </c>
-      <c r="F6" s="21" cm="1">
+      <c r="F6" s="18" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.74553059829739543</v>
       </c>
@@ -9809,7 +11271,7 @@
         <f t="array" aca="1" ref="N6" ca="1">IF(INDEX($B$3:$F$22,$R6,COLUMN()-COLUMN($I$7))=0,"-",INDEX($B$3:$F$22,$R6,COLUMN()-COLUMN($I$7)))</f>
         <v>0.99095592553178735</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>0.98694578947910439</v>
       </c>
@@ -9822,27 +11284,27 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="21" cm="1">
+      <c r="B7" s="18" cm="1">
         <f t="array" aca="1" ref="B7" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99811404433598294</v>
       </c>
-      <c r="C7" s="21" cm="1">
+      <c r="C7" s="18" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.89076787411842273</v>
       </c>
-      <c r="D7" s="21" cm="1">
+      <c r="D7" s="18" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.83637042816549867</v>
       </c>
-      <c r="E7" s="21" cm="1">
+      <c r="E7" s="18" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.81345419544847086</v>
       </c>
-      <c r="F7" s="21" cm="1">
+      <c r="F7" s="18" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.94235072547017229</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.89621145350770948</v>
       </c>
@@ -9870,7 +11332,7 @@
         <f t="array" aca="1" ref="N7" ca="1">IF(INDEX($B$3:$F$22,$R7,COLUMN()-COLUMN($I$7))=0,"-",INDEX($B$3:$F$22,$R7,COLUMN()-COLUMN($I$7)))</f>
         <v>0.99505695260066518</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>0.99885373615392725</v>
       </c>
@@ -9883,27 +11345,27 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="21" cm="1">
+      <c r="B8" s="18" cm="1">
         <f t="array" aca="1" ref="B8" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99398038399551458</v>
       </c>
-      <c r="C8" s="21" cm="1">
+      <c r="C8" s="18" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.82807067450161176</v>
       </c>
-      <c r="D8" s="21" cm="1">
+      <c r="D8" s="18" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.80033918925387559</v>
       </c>
-      <c r="E8" s="21" cm="1">
+      <c r="E8" s="18" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="F8" s="21" cm="1">
+      <c r="F8" s="18" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.52447804955020039</v>
       </c>
@@ -9931,7 +11393,7 @@
         <f t="array" aca="1" ref="N8" ca="1">IF(INDEX($B$3:$F$22,$R8,COLUMN()-COLUMN($I$7))=0,"-",INDEX($B$3:$F$22,$R8,COLUMN()-COLUMN($I$7)))</f>
         <v>0.99807274675965918</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>0.99956397411408138</v>
       </c>
@@ -9944,27 +11406,27 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="21" cm="1">
+      <c r="B9" s="18" cm="1">
         <f t="array" aca="1" ref="B9" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99965771781679846</v>
       </c>
-      <c r="C9" s="21" cm="1">
+      <c r="C9" s="18" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.945736082879166</v>
       </c>
-      <c r="D9" s="21" cm="1">
+      <c r="D9" s="18" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99992916765579776</v>
       </c>
-      <c r="E9" s="21" cm="1">
+      <c r="E9" s="18" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99845005351197236</v>
       </c>
-      <c r="F9" s="21" cm="1">
+      <c r="F9" s="18" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99095592553178735</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.98694578947910439</v>
       </c>
@@ -9992,7 +11454,7 @@
         <f t="array" aca="1" ref="N9" ca="1">IF(INDEX($B$3:$F$22,$R9,COLUMN()-COLUMN($I$7))=0,"-",INDEX($B$3:$F$22,$R9,COLUMN()-COLUMN($I$7)))</f>
         <v>-</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>0.91357783114734004</v>
       </c>
@@ -10005,27 +11467,27 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="21" cm="1">
+      <c r="B10" s="18" cm="1">
         <f t="array" aca="1" ref="B10" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1</v>
       </c>
-      <c r="C10" s="21" cm="1">
+      <c r="C10" s="18" cm="1">
         <f t="array" aca="1" ref="C10" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99999997197503365</v>
       </c>
-      <c r="D10" s="21" cm="1">
+      <c r="D10" s="18" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99997237462762067</v>
       </c>
-      <c r="E10" s="21" cm="1">
+      <c r="E10" s="18" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99923938156631709</v>
       </c>
-      <c r="F10" s="21" cm="1">
+      <c r="F10" s="18" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99505695260066518</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.99885373615392725</v>
       </c>
@@ -10053,7 +11515,7 @@
         <f t="array" aca="1" ref="N10" ca="1">IF(INDEX($B$3:$F$22,$R10,COLUMN()-COLUMN($I$7))=0,"-",INDEX($B$3:$F$22,$R10,COLUMN()-COLUMN($I$7)))</f>
         <v>0.82148800302529978</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>0.94302889772395793</v>
       </c>
@@ -10066,27 +11528,27 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="21" cm="1">
+      <c r="B11" s="18" cm="1">
         <f t="array" aca="1" ref="B11" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1</v>
       </c>
-      <c r="C11" s="21" cm="1">
+      <c r="C11" s="18" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99999999891882363</v>
       </c>
-      <c r="D11" s="21" cm="1">
+      <c r="D11" s="18" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99999593554653021</v>
       </c>
-      <c r="E11" s="21" cm="1">
+      <c r="E11" s="18" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99975118934539331</v>
       </c>
-      <c r="F11" s="21" cm="1">
+      <c r="F11" s="18" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99807274675965918</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.99956397411408138</v>
       </c>
@@ -10114,7 +11576,7 @@
         <f t="array" aca="1" ref="N11" ca="1">IF(INDEX($B$3:$F$22,$R11,COLUMN()-COLUMN($I$7))=0,"-",INDEX($B$3:$F$22,$R11,COLUMN()-COLUMN($I$7)))</f>
         <v>0.85548554689747569</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>0.95562278785907429</v>
       </c>
@@ -10127,31 +11589,31 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="21" cm="1">
+      <c r="B12" s="18" cm="1">
         <f t="array" aca="1" ref="B12" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.94366982934867316</v>
       </c>
-      <c r="C12" s="21" cm="1">
+      <c r="C12" s="18" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.90922217239528202</v>
       </c>
-      <c r="D12" s="21" cm="1">
+      <c r="D12" s="18" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.88784149169806492</v>
       </c>
-      <c r="E12" s="21" cm="1">
+      <c r="E12" s="18" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="F12" s="21" cm="1">
+      <c r="F12" s="18" cm="1">
         <f t="array" aca="1" ref="F12" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.54814669868840404</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="21">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -10175,7 +11637,7 @@
         <f t="array" aca="1" ref="N12" ca="1">IF(INDEX($B$3:$F$22,$R12,COLUMN()-COLUMN($I$7))=0,"-",INDEX($B$3:$F$22,$R12,COLUMN()-COLUMN($I$7)))</f>
         <v>0.98963748394317852</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>0.99756074580366805</v>
       </c>
@@ -10188,27 +11650,27 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="21" cm="1">
+      <c r="B13" s="18" cm="1">
         <f t="array" aca="1" ref="B13" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="C13" s="21" cm="1">
+      <c r="C13" s="18" cm="1">
         <f t="array" aca="1" ref="C13" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="D13" s="21" cm="1">
+      <c r="D13" s="18" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="E13" s="21" cm="1">
+      <c r="E13" s="18" cm="1">
         <f t="array" aca="1" ref="E13" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="F13" s="21" cm="1">
+      <c r="F13" s="18" cm="1">
         <f t="array" aca="1" ref="F13" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
@@ -10224,27 +11686,27 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="21" cm="1">
+      <c r="B14" s="18" cm="1">
         <f t="array" aca="1" ref="B14" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99470921837758719</v>
       </c>
-      <c r="C14" s="21" cm="1">
+      <c r="C14" s="18" cm="1">
         <f t="array" aca="1" ref="C14" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.84356513676834288</v>
       </c>
-      <c r="D14" s="21" cm="1">
+      <c r="D14" s="18" cm="1">
         <f t="array" aca="1" ref="D14" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.91179807510839428</v>
       </c>
-      <c r="E14" s="21" cm="1">
+      <c r="E14" s="18" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.95725165708733195</v>
       </c>
-      <c r="F14" s="21" cm="1">
+      <c r="F14" s="18" cm="1">
         <f t="array" aca="1" ref="F14" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.89203826004358755</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.91987246947704882</v>
       </c>
@@ -10260,27 +11722,27 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="21" cm="1">
+      <c r="B15" s="18" cm="1">
         <f t="array" aca="1" ref="B15" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99999994928492342</v>
       </c>
-      <c r="C15" s="21" cm="1">
+      <c r="C15" s="18" cm="1">
         <f t="array" aca="1" ref="C15" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99888699321696117</v>
       </c>
-      <c r="D15" s="21" cm="1">
+      <c r="D15" s="18" cm="1">
         <f t="array" aca="1" ref="D15" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.97936820550667902</v>
       </c>
-      <c r="E15" s="21" cm="1">
+      <c r="E15" s="18" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.91540133758592646</v>
       </c>
-      <c r="F15" s="21" cm="1">
+      <c r="F15" s="18" cm="1">
         <f t="array" aca="1" ref="F15" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.82148800302529978</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.94302889772395793</v>
       </c>
@@ -10296,27 +11758,27 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="21" cm="1">
+      <c r="B16" s="18" cm="1">
         <f t="array" aca="1" ref="B16" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.9996330681012735</v>
       </c>
-      <c r="C16" s="21" cm="1">
+      <c r="C16" s="18" cm="1">
         <f t="array" aca="1" ref="C16" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.94682996433354627</v>
       </c>
-      <c r="D16" s="21" cm="1">
+      <c r="D16" s="18" cm="1">
         <f t="array" aca="1" ref="D16" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.80019838385035769</v>
       </c>
-      <c r="E16" s="21" cm="1">
+      <c r="E16" s="18" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.83444515283237541</v>
       </c>
-      <c r="F16" s="21" cm="1">
+      <c r="F16" s="18" cm="1">
         <f t="array" aca="1" ref="F16" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.8006703048110364</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.8763553747857179</v>
       </c>
@@ -10332,27 +11794,27 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="21" cm="1">
+      <c r="B17" s="18" cm="1">
         <f t="array" aca="1" ref="B17" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.9999999848779666</v>
       </c>
-      <c r="C17" s="21" cm="1">
+      <c r="C17" s="18" cm="1">
         <f t="array" aca="1" ref="C17" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99947178115653346</v>
       </c>
-      <c r="D17" s="21" cm="1">
+      <c r="D17" s="18" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.98601186125240703</v>
       </c>
-      <c r="E17" s="21" cm="1">
+      <c r="E17" s="18" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.93714476511098899</v>
       </c>
-      <c r="F17" s="21" cm="1">
+      <c r="F17" s="18" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.85548554689747569</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.95562278785907429</v>
       </c>
@@ -10368,27 +11830,27 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="21" cm="1">
+      <c r="B18" s="18" cm="1">
         <f t="array" aca="1" ref="B18" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99955219396698181</v>
       </c>
-      <c r="C18" s="21" cm="1">
+      <c r="C18" s="18" cm="1">
         <f t="array" aca="1" ref="C18" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.94047354658717042</v>
       </c>
-      <c r="D18" s="21" cm="1">
+      <c r="D18" s="18" cm="1">
         <f t="array" aca="1" ref="D18" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.81673764247342762</v>
       </c>
-      <c r="E18" s="21" cm="1">
+      <c r="E18" s="18" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="F18" s="21" cm="1">
+      <c r="F18" s="18" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.5513526766055159</v>
       </c>
@@ -10404,27 +11866,27 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="21" cm="1">
+      <c r="B19" s="18" cm="1">
         <f t="array" aca="1" ref="B19" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99994694045517096</v>
       </c>
-      <c r="C19" s="21" cm="1">
+      <c r="C19" s="18" cm="1">
         <f t="array" aca="1" ref="C19" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.97616744498387586</v>
       </c>
-      <c r="D19" s="21" cm="1">
+      <c r="D19" s="18" cm="1">
         <f t="array" aca="1" ref="D19" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.86199476491002314</v>
       </c>
-      <c r="E19" s="21" cm="1">
+      <c r="E19" s="18" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.9638292516905228</v>
       </c>
-      <c r="F19" s="21" cm="1">
+      <c r="F19" s="18" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.90218243067104087</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.94082416654212664</v>
       </c>
@@ -10440,27 +11902,27 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="21" cm="1">
+      <c r="B20" s="18" cm="1">
         <f t="array" aca="1" ref="B20" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.95762387930829729</v>
       </c>
-      <c r="C20" s="21" cm="1">
+      <c r="C20" s="18" cm="1">
         <f t="array" aca="1" ref="C20" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99651497717391313</v>
       </c>
-      <c r="D20" s="21" cm="1">
+      <c r="D20" s="18" cm="1">
         <f t="array" aca="1" ref="D20" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.95669402703199691</v>
       </c>
-      <c r="E20" s="21" cm="1">
+      <c r="E20" s="18" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.86861118286174999</v>
       </c>
-      <c r="F20" s="21" cm="1">
+      <c r="F20" s="18" cm="1">
         <f t="array" aca="1" ref="F20" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.95126602427846374</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.94614201813088417</v>
       </c>
@@ -10476,27 +11938,27 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="21" cm="1">
+      <c r="B21" s="18" cm="1">
         <f t="array" aca="1" ref="B21" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99999999999999933</v>
       </c>
-      <c r="C21" s="21" cm="1">
+      <c r="C21" s="18" cm="1">
         <f t="array" aca="1" ref="C21" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99999976017950076</v>
       </c>
-      <c r="D21" s="21" cm="1">
+      <c r="D21" s="18" cm="1">
         <f t="array" aca="1" ref="D21" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99990883394674712</v>
       </c>
-      <c r="E21" s="21" cm="1">
+      <c r="E21" s="18" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.9982576509489145</v>
       </c>
-      <c r="F21" s="21" cm="1">
+      <c r="F21" s="18" cm="1">
         <f t="array" aca="1" ref="F21" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.98963748394317852</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.99756074580366805</v>
       </c>
@@ -10512,27 +11974,27 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="21" cm="1">
+      <c r="B22" s="18" cm="1">
         <f t="array" aca="1" ref="B22" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99648389692868533</v>
       </c>
-      <c r="C22" s="21" cm="1">
+      <c r="C22" s="18" cm="1">
         <f t="array" aca="1" ref="C22" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.86773861687097531</v>
       </c>
-      <c r="D22" s="21" cm="1">
+      <c r="D22" s="18" cm="1">
         <f t="array" aca="1" ref="D22" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="E22" s="21" cm="1">
+      <c r="E22" s="18" cm="1">
         <f t="array" aca="1" ref="E22" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="F22" s="21" cm="1">
+      <c r="F22" s="18" cm="1">
         <f t="array" aca="1" ref="F22" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.37284450275993214</v>
       </c>
@@ -10544,611 +12006,611 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="21">
+      <c r="A23" s="18">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="21" cm="1">
+      <c r="B23" s="18" cm="1">
         <f t="array" aca="1" ref="B23" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1</v>
       </c>
-      <c r="C23" s="21" cm="1">
+      <c r="C23" s="18" cm="1">
         <f t="array" aca="1" ref="C23" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99999999995328814</v>
       </c>
-      <c r="D23" s="21" cm="1">
+      <c r="D23" s="18" cm="1">
         <f t="array" aca="1" ref="D23" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99999970477876809</v>
       </c>
-      <c r="E23" s="21" cm="1">
+      <c r="E23" s="18" cm="1">
         <f t="array" aca="1" ref="E23" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.9999631114556925</v>
       </c>
-      <c r="F23" s="21" cm="1">
+      <c r="F23" s="18" cm="1">
         <f t="array" aca="1" ref="F23" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99953907288633059</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.99990037781481578</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="21">
+      <c r="A24" s="18">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="21" cm="1">
+      <c r="B24" s="18" cm="1">
         <f t="array" aca="1" ref="B24" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99976130175581501</v>
       </c>
-      <c r="C24" s="21" cm="1">
+      <c r="C24" s="18" cm="1">
         <f t="array" aca="1" ref="C24" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.95857317764337624</v>
       </c>
-      <c r="D24" s="21" cm="1">
+      <c r="D24" s="18" cm="1">
         <f t="array" aca="1" ref="D24" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.81142053373171152</v>
       </c>
-      <c r="E24" s="21" cm="1">
+      <c r="E24" s="18" cm="1">
         <f t="array" aca="1" ref="E24" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.81460869995632046</v>
       </c>
-      <c r="F24" s="21" cm="1">
+      <c r="F24" s="18" cm="1">
         <f t="array" aca="1" ref="F24" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.89556327366050881</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.8959853973495463</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="21">
+      <c r="A25" s="18">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="21" cm="1">
+      <c r="B25" s="18" cm="1">
         <f t="array" aca="1" ref="B25" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99996774832561774</v>
       </c>
-      <c r="C25" s="21" cm="1">
+      <c r="C25" s="18" cm="1">
         <f t="array" aca="1" ref="C25" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.97989175487072311</v>
       </c>
-      <c r="D25" s="21" cm="1">
+      <c r="D25" s="18" cm="1">
         <f t="array" aca="1" ref="D25" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.87955371013351014</v>
       </c>
-      <c r="E25" s="21" cm="1">
+      <c r="E25" s="18" cm="1">
         <f t="array" aca="1" ref="E25" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.80354016511090287</v>
       </c>
-      <c r="F25" s="21" cm="1">
+      <c r="F25" s="18" cm="1">
         <f t="array" aca="1" ref="F25" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.80468475262286232</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.89352762621272341</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="21">
+      <c r="A26" s="18">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="21" cm="1">
+      <c r="B26" s="18" cm="1">
         <f t="array" aca="1" ref="B26" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.9983544570692604</v>
       </c>
-      <c r="C26" s="21" cm="1">
+      <c r="C26" s="18" cm="1">
         <f t="array" aca="1" ref="C26" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.89690526610150034</v>
       </c>
-      <c r="D26" s="21" cm="1">
+      <c r="D26" s="18" cm="1">
         <f t="array" aca="1" ref="D26" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.8565994173913315</v>
       </c>
-      <c r="E26" s="21" cm="1">
+      <c r="E26" s="18" cm="1">
         <f t="array" aca="1" ref="E26" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.81098382609016917</v>
       </c>
-      <c r="F26" s="21" cm="1">
+      <c r="F26" s="18" cm="1">
         <f t="array" aca="1" ref="F26" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.82365291018716191</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.87729917536788471</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="21">
+      <c r="A27" s="18">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="21" cm="1">
+      <c r="B27" s="18" cm="1">
         <f t="array" aca="1" ref="B27" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99999999982430543</v>
       </c>
-      <c r="C27" s="21" cm="1">
+      <c r="C27" s="18" cm="1">
         <f t="array" aca="1" ref="C27" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99992855681783566</v>
       </c>
-      <c r="D27" s="21" cm="1">
+      <c r="D27" s="18" cm="1">
         <f t="array" aca="1" ref="D27" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99626790594648895</v>
       </c>
-      <c r="E27" s="21" cm="1">
+      <c r="E27" s="18" cm="1">
         <f t="array" aca="1" ref="E27" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.97463551327989584</v>
       </c>
-      <c r="F27" s="21" cm="1">
+      <c r="F27" s="18" cm="1">
         <f t="array" aca="1" ref="F27" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.92424988020976229</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.97901637121565765</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="21">
+      <c r="A28" s="18">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="21" cm="1">
+      <c r="B28" s="18" cm="1">
         <f t="array" aca="1" ref="B28" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.9480480863606463</v>
       </c>
-      <c r="C28" s="21" cm="1">
+      <c r="C28" s="18" cm="1">
         <f t="array" aca="1" ref="C28" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.8760718408160072</v>
       </c>
-      <c r="D28" s="21" cm="1">
+      <c r="D28" s="18" cm="1">
         <f t="array" aca="1" ref="D28" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="E28" s="21" cm="1">
+      <c r="E28" s="18" cm="1">
         <f t="array" aca="1" ref="E28" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="F28" s="21" cm="1">
+      <c r="F28" s="18" cm="1">
         <f t="array" aca="1" ref="F28" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.36482398543533068</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="21">
+      <c r="A29" s="18">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="21" cm="1">
+      <c r="B29" s="18" cm="1">
         <f t="array" aca="1" ref="B29" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99997593633643911</v>
       </c>
-      <c r="C29" s="21" cm="1">
+      <c r="C29" s="18" cm="1">
         <f t="array" aca="1" ref="C29" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.98505850131763695</v>
       </c>
-      <c r="D29" s="21" cm="1">
+      <c r="D29" s="18" cm="1">
         <f t="array" aca="1" ref="D29" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.88965311489200261</v>
       </c>
-      <c r="E29" s="21" cm="1">
+      <c r="E29" s="18" cm="1">
         <f t="array" aca="1" ref="E29" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.80104031786232222</v>
       </c>
-      <c r="F29" s="21" cm="1">
+      <c r="F29" s="18" cm="1">
         <f t="array" aca="1" ref="F29" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.80778035354198863</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.89670164479007786</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="21">
+      <c r="A30" s="18">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="21" cm="1">
+      <c r="B30" s="18" cm="1">
         <f t="array" aca="1" ref="B30" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1</v>
       </c>
-      <c r="C30" s="21" cm="1">
+      <c r="C30" s="18" cm="1">
         <f t="array" aca="1" ref="C30" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99999999986583399</v>
       </c>
-      <c r="D30" s="21" cm="1">
+      <c r="D30" s="18" cm="1">
         <f t="array" aca="1" ref="D30" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99999895596120913</v>
       </c>
-      <c r="E30" s="21" cm="1">
+      <c r="E30" s="18" cm="1">
         <f t="array" aca="1" ref="E30" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99993927593275145</v>
       </c>
-      <c r="F30" s="21" cm="1">
+      <c r="F30" s="18" cm="1">
         <f t="array" aca="1" ref="F30" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99919851474258559</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.99982734930047601</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="21">
+      <c r="A31" s="18">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="21" cm="1">
+      <c r="B31" s="18" cm="1">
         <f t="array" aca="1" ref="B31" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.999088237362738</v>
       </c>
-      <c r="C31" s="21" cm="1">
+      <c r="C31" s="18" cm="1">
         <f t="array" aca="1" ref="C31" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.92121800025944323</v>
       </c>
-      <c r="D31" s="21" cm="1">
+      <c r="D31" s="18" cm="1">
         <f t="array" aca="1" ref="D31" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.88216868865010867</v>
       </c>
-      <c r="E31" s="21" cm="1">
+      <c r="E31" s="18" cm="1">
         <f t="array" aca="1" ref="E31" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="F31" s="21" cm="1">
+      <c r="F31" s="18" cm="1">
         <f t="array" aca="1" ref="F31" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.56049498525445796</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="21">
+      <c r="A32" s="18">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="21" cm="1">
+      <c r="B32" s="18" cm="1">
         <f t="array" aca="1" ref="B32" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99995778726018603</v>
       </c>
-      <c r="C32" s="21" cm="1">
+      <c r="C32" s="18" cm="1">
         <f t="array" aca="1" ref="C32" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.97962150278740356</v>
       </c>
-      <c r="D32" s="21" cm="1">
+      <c r="D32" s="18" cm="1">
         <f t="array" aca="1" ref="D32" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.87027040591678428</v>
       </c>
-      <c r="E32" s="21" cm="1">
+      <c r="E32" s="18" cm="1">
         <f t="array" aca="1" ref="E32" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.82501582598541168</v>
       </c>
-      <c r="F32" s="21" cm="1">
+      <c r="F32" s="18" cm="1">
         <f t="array" aca="1" ref="F32" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.73497310438995711</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="21">
+      <c r="A33" s="18">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="21" cm="1">
+      <c r="B33" s="18" cm="1">
         <f t="array" aca="1" ref="B33" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99999814973386336</v>
       </c>
-      <c r="C33" s="21" cm="1">
+      <c r="C33" s="18" cm="1">
         <f t="array" aca="1" ref="C33" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99498591065705344</v>
       </c>
-      <c r="D33" s="21" cm="1">
+      <c r="D33" s="18" cm="1">
         <f t="array" aca="1" ref="D33" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.94758053513285556</v>
       </c>
-      <c r="E33" s="21" cm="1">
+      <c r="E33" s="18" cm="1">
         <f t="array" aca="1" ref="E33" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.83643863417083852</v>
       </c>
-      <c r="F33" s="21" cm="1">
+      <c r="F33" s="18" cm="1">
         <f t="array" aca="1" ref="F33" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.85011215537407225</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.92582307701373667</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="21">
+      <c r="A34" s="18">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="21" cm="1">
+      <c r="B34" s="18" cm="1">
         <f t="array" aca="1" ref="B34" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1</v>
       </c>
-      <c r="C34" s="21" cm="1">
+      <c r="C34" s="18" cm="1">
         <f t="array" aca="1" ref="C34" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>1</v>
       </c>
-      <c r="D34" s="21" cm="1">
+      <c r="D34" s="18" cm="1">
         <f t="array" aca="1" ref="D34" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99999999999999067</v>
       </c>
-      <c r="E34" s="21" cm="1">
+      <c r="E34" s="18" cm="1">
         <f t="array" aca="1" ref="E34" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99999999992631161</v>
       </c>
-      <c r="F34" s="21" cm="1">
+      <c r="F34" s="18" cm="1">
         <f t="array" aca="1" ref="F34" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99999998028244019</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.9999999960417485</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="21">
+      <c r="A35" s="18">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="21" cm="1">
+      <c r="B35" s="18" cm="1">
         <f t="array" aca="1" ref="B35" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.90853343550676313</v>
       </c>
-      <c r="C35" s="21" cm="1">
+      <c r="C35" s="18" cm="1">
         <f t="array" aca="1" ref="C35" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.94620569110600772</v>
       </c>
-      <c r="D35" s="21" cm="1">
+      <c r="D35" s="18" cm="1">
         <f t="array" aca="1" ref="D35" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.82686377852555326</v>
       </c>
-      <c r="E35" s="21" cm="1">
+      <c r="E35" s="18" cm="1">
         <f t="array" aca="1" ref="E35" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.83075085297670981</v>
       </c>
-      <c r="F35" s="21" cm="1">
+      <c r="F35" s="18" cm="1">
         <f t="array" aca="1" ref="F35" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.86467511637526884</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.87540577489806048</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="21">
+      <c r="A36" s="18">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36" s="21" cm="1">
+      <c r="B36" s="18" cm="1">
         <f t="array" aca="1" ref="B36" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99507478289199647</v>
       </c>
-      <c r="C36" s="21" cm="1">
+      <c r="C36" s="18" cm="1">
         <f t="array" aca="1" ref="C36" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.84156153542017753</v>
       </c>
-      <c r="D36" s="21" cm="1">
+      <c r="D36" s="18" cm="1">
         <f t="array" aca="1" ref="D36" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.80931478505087462</v>
       </c>
-      <c r="E36" s="21" cm="1">
+      <c r="E36" s="18" cm="1">
         <f t="array" aca="1" ref="E36" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.80026203594092582</v>
       </c>
-      <c r="F36" s="21" cm="1">
+      <c r="F36" s="18" cm="1">
         <f t="array" aca="1" ref="F36" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.85354935822320721</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.85995249950543629</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="21">
+      <c r="A37" s="18">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="21" cm="1">
+      <c r="B37" s="18" cm="1">
         <f t="array" aca="1" ref="B37" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99999999999986777</v>
       </c>
-      <c r="C37" s="21" cm="1">
+      <c r="C37" s="18" cm="1">
         <f t="array" aca="1" ref="C37" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99999693247065824</v>
       </c>
-      <c r="D37" s="21" cm="1">
+      <c r="D37" s="18" cm="1">
         <f t="array" aca="1" ref="D37" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99950194386774582</v>
       </c>
-      <c r="E37" s="21" cm="1">
+      <c r="E37" s="18" cm="1">
         <f t="array" aca="1" ref="E37" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99351336217212205</v>
       </c>
-      <c r="F37" s="21" cm="1">
+      <c r="F37" s="18" cm="1">
         <f t="array" aca="1" ref="F37" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.97414478312672925</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.99343140432742472</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="21">
+      <c r="A38" s="18">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B38" s="21" cm="1">
+      <c r="B38" s="18" cm="1">
         <f t="array" aca="1" ref="B38" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.87882189595430615</v>
       </c>
-      <c r="C38" s="21" cm="1">
+      <c r="C38" s="18" cm="1">
         <f t="array" aca="1" ref="C38" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="D38" s="21" cm="1">
+      <c r="D38" s="18" cm="1">
         <f t="array" aca="1" ref="D38" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="E38" s="21" cm="1">
+      <c r="E38" s="18" cm="1">
         <f t="array" aca="1" ref="E38" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="F38" s="21" cm="1">
+      <c r="F38" s="18" cm="1">
         <f t="array" aca="1" ref="F38" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.17576437919086124</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="21">
+      <c r="A39" s="18">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="21" cm="1">
+      <c r="B39" s="18" cm="1">
         <f t="array" aca="1" ref="B39" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99890138164481135</v>
       </c>
-      <c r="C39" s="21" cm="1">
+      <c r="C39" s="18" cm="1">
         <f t="array" aca="1" ref="C39" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.91407949083810824</v>
       </c>
-      <c r="D39" s="21" cm="1">
+      <c r="D39" s="18" cm="1">
         <f t="array" aca="1" ref="D39" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.86197114179194279</v>
       </c>
-      <c r="E39" s="21" cm="1">
+      <c r="E39" s="18" cm="1">
         <f t="array" aca="1" ref="E39" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.84203909142350575</v>
       </c>
-      <c r="F39" s="21" cm="1">
+      <c r="F39" s="18" cm="1">
         <f t="array" aca="1" ref="F39" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.85068505752673906</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.89353523264502144</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="21">
+      <c r="A40" s="18">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="21" cm="1">
+      <c r="B40" s="18" cm="1">
         <f t="array" aca="1" ref="B40" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99998947156698115</v>
       </c>
-      <c r="C40" s="21" cm="1">
+      <c r="C40" s="18" cm="1">
         <f t="array" aca="1" ref="C40" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.98936803323870326</v>
       </c>
-      <c r="D40" s="21" cm="1">
+      <c r="D40" s="18" cm="1">
         <f t="array" aca="1" ref="D40" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.9148662164860426</v>
       </c>
-      <c r="E40" s="21" cm="1">
+      <c r="E40" s="18" cm="1">
         <f t="array" aca="1" ref="E40" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.84863431720455318</v>
       </c>
-      <c r="F40" s="21" cm="1">
+      <c r="F40" s="18" cm="1">
         <f t="array" aca="1" ref="F40" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.85845615813651377</v>
       </c>
-      <c r="G40" s="21">
+      <c r="G40" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.92226283932655873</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="21">
+      <c r="A41" s="18">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="21" cm="1">
+      <c r="B41" s="18" cm="1">
         <f t="array" aca="1" ref="B41" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.99977792645305374</v>
       </c>
-      <c r="C41" s="21" cm="1">
+      <c r="C41" s="18" cm="1">
         <f t="array" aca="1" ref="C41" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.9559140019806267</v>
       </c>
-      <c r="D41" s="21" cm="1">
+      <c r="D41" s="18" cm="1">
         <f t="array" aca="1" ref="D41" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0.80509054833351723</v>
       </c>
-      <c r="E41" s="21" cm="1">
+      <c r="E41" s="18" cm="1">
         <f t="array" aca="1" ref="E41" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="F41" s="21" cm="1">
+      <c r="F41" s="18" cm="1">
         <f t="array" aca="1" ref="F41" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G41" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0.55215649535343947</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="21">
+      <c r="A42" s="18">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42" s="21" cm="1">
+      <c r="B42" s="18" cm="1">
         <f t="array" aca="1" ref="B42" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="C42" s="21" cm="1">
+      <c r="C42" s="18" cm="1">
         <f t="array" aca="1" ref="C42" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="D42" s="21" cm="1">
+      <c r="D42" s="18" cm="1">
         <f t="array" aca="1" ref="D42" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="E42" s="21" cm="1">
+      <c r="E42" s="18" cm="1">
         <f t="array" aca="1" ref="E42" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="F42" s="21" cm="1">
+      <c r="F42" s="18" cm="1">
         <f t="array" aca="1" ref="F42" ca="1">INDIRECT(_xlfn.CONCAT("reliability",$G$1,"!",ADDRESS(ROW(),COLUMN(),1,1)))</f>
         <v>0</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G42" s="18">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
